--- a/S18_Environment_Feature_Extraction.xlsx
+++ b/S18_Environment_Feature_Extraction.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="712">
   <si>
     <t>UUID</t>
   </si>
@@ -2159,10 +2159,10 @@
     <t>individual, multi-person, both, unspecified</t>
   </si>
   <si>
-    <t>instructional, training, informal</t>
-  </si>
-  <si>
-    <t>K-12, undergraduate, graduate, professional development, undisclosed</t>
+    <t>instructional, training, informal, unspecified</t>
+  </si>
+  <si>
+    <t>K-12, undergraduate, graduate, professional development, unspecified</t>
   </si>
   <si>
     <t>model-based, model-free</t>
@@ -2230,6 +2230,62 @@
   </si>
   <si>
     <t>Orchestration graphs. Multi-person because classroom-based and therefore multiple students.</t>
+  </si>
+  <si>
+    <t>Marvy learns (geometry). RF for classification (model-based). Exploratory Factor Analysis (EFA) for statistical analysis (model-free)</t>
+  </si>
+  <si>
+    <t>informal</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>"We conducted a case study to compare the visualizations provided by the system in two different situations: collaborative and competitive activities. The results suggest that the provided visualizations help to identify issues on cognitive contribution, assimilation, self-regulation, and integration of the team members. They could also support teachers to decide whether they must assist a team in fostering collaboration.
+While the results are naturally constrained to the characteristics of the activities in which we tested the platform, they provide initial evidence about the technical fea-
+sibility of extracting behavioral indicators and traces using MMLA to give insights onteam collaboration."</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>Arduino + browser IDE, so blended engineering. DNN + regression. Also tested SVM, NB, LR.</t>
+  </si>
+  <si>
+    <t>2 tasks: use sheet of paper to hold text book, and use other materials to support a 0.5lb mass
+Model-based w/ DT classifier, model-free with k-means clustering.</t>
+  </si>
+  <si>
+    <t>Table Tennis Tutor, LSTM classification.</t>
+  </si>
+  <si>
+    <t>"Overall, our work shows that capturing multimodal data can help us increase the prediction accuracy of users’ learning performance in learner–computer interaction (LCI). In addition, the study shows that the most commonly used data-stream (i.e., keystrokes) is the poorest proxy of our learning performance. Thus, leveraging advances in contemporary learning environments and physiological sensing (wearable, EEG etc.), we provide evidence that multimodal data can be a viable method to accurately track users’ states during learning, thereby providing unique possibilities of closing the loop between the learning technology and the learner. Therefore, the incorporation of multimodal data enables HCI and learning technology researchers to examine unscripted, complex tasks in more holistic and accurate ways."
+Identified specific multimodal features that were best predictors of performance.</t>
+  </si>
+  <si>
+    <t>Pac-Man. Model-based for regression, model-free for statistical methods.
+Does training always map to training or is Pacman both a training environment that is informal, for instance?</t>
+  </si>
+  <si>
+    <t>Engagement detection, DAiSEE dataset. Neural Turing Machine (NTM) RNN.</t>
+  </si>
+  <si>
+    <t>Affect detection in simulated medical environment. "other" for environment type because medical? SVM and DNN for model-based.</t>
+  </si>
+  <si>
+    <t>virtual, physical</t>
+  </si>
+  <si>
+    <t>individual, multi-student</t>
+  </si>
+  <si>
+    <t>Ashwin paper! Automated inquiry-based instruction based on affective state. Two environments: classroom (multi-student) and e-learning (single-student). Classification via Inception and YOLO.</t>
+  </si>
+  <si>
+    <t>Learning CS w/ Snap! collaboratively. SVM, BERT, MLP for model-based.</t>
+  </si>
+  <si>
+    <t>Monash nursing group. Other for healthcare?</t>
   </si>
 </sst>
 </file>
@@ -2260,7 +2316,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2289,6 +2345,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2364,6 +2426,9 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2371,9 +2436,6 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2384,7 +2446,7 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2732,7 +2794,7 @@
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="8">
         <v>1.326191931E9</v>
       </c>
@@ -2791,7 +2853,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="8">
         <v>1.326191931E9</v>
       </c>
@@ -2840,7 +2902,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="8">
         <v>1.469065963E9</v>
       </c>
@@ -2899,7 +2961,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="8">
         <v>1.469065963E9</v>
       </c>
@@ -2948,7 +3010,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="8">
         <v>1.598166515E9</v>
       </c>
@@ -3007,7 +3069,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="8">
         <v>1.598166515E9</v>
       </c>
@@ -3056,7 +3118,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="8">
         <v>1.877483551E9</v>
       </c>
@@ -3115,7 +3177,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="8">
         <v>1.877483551E9</v>
       </c>
@@ -3164,7 +3226,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="8">
         <v>2.000036002E9</v>
       </c>
@@ -3223,7 +3285,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="8">
         <v>2.000036002E9</v>
       </c>
@@ -3272,7 +3334,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="8">
         <v>2.070224207E9</v>
       </c>
@@ -3331,7 +3393,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="8">
         <v>2.070224207E9</v>
       </c>
@@ -3380,7 +3442,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="8">
         <v>2.634033325E9</v>
       </c>
@@ -3439,7 +3501,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="8">
         <v>2.634033325E9</v>
       </c>
@@ -3488,7 +3550,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="8">
         <v>3.051560548E9</v>
       </c>
@@ -3547,7 +3609,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="8">
         <v>3.051560548E9</v>
       </c>
@@ -3596,7 +3658,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="8">
         <v>3.339002981E9</v>
       </c>
@@ -3655,7 +3717,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="8">
         <v>3.339002981E9</v>
       </c>
@@ -3704,7 +3766,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="8">
         <v>3.408664396E9</v>
       </c>
@@ -3761,7 +3823,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8">
         <v>3.408664396E9</v>
       </c>
@@ -3810,7 +3872,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8">
         <v>8.04659204E8</v>
       </c>
@@ -3869,7 +3931,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8">
         <v>8.04659204E8</v>
       </c>
@@ -3918,7 +3980,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8">
         <v>1.581261659E9</v>
       </c>
@@ -3977,7 +4039,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8">
         <v>1.581261659E9</v>
       </c>
@@ -4026,7 +4088,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8">
         <v>2.836996318E9</v>
       </c>
@@ -4085,7 +4147,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8">
         <v>2.836996318E9</v>
       </c>
@@ -4134,7 +4196,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8">
         <v>3.2184286E7</v>
       </c>
@@ -4193,7 +4255,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8">
         <v>3.2184286E7</v>
       </c>
@@ -4242,7 +4304,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8">
         <v>4.33919853E8</v>
       </c>
@@ -4301,7 +4363,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8">
         <v>4.33919853E8</v>
       </c>
@@ -4350,7 +4412,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8">
         <v>4.83140962E8</v>
       </c>
@@ -4409,7 +4471,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8">
         <v>4.83140962E8</v>
       </c>
@@ -4458,7 +4520,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8">
         <v>3.308658121E9</v>
       </c>
@@ -4517,7 +4579,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8">
         <v>3.308658121E9</v>
       </c>
@@ -4566,7 +4628,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8">
         <v>1.847468084E9</v>
       </c>
@@ -4625,7 +4687,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>1.847468084E9</v>
       </c>
@@ -4674,7 +4736,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8">
         <v>2.345021698E9</v>
       </c>
@@ -4733,7 +4795,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8">
         <v>2.345021698E9</v>
       </c>
@@ -4782,7 +4844,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="8">
         <v>3.796643912E9</v>
       </c>
@@ -4844,7 +4906,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="8">
         <v>3.796643912E9</v>
       </c>
@@ -4893,7 +4955,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="8">
         <v>2.05660768E8</v>
       </c>
@@ -4952,7 +5014,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="8">
         <v>2.05660768E8</v>
       </c>
@@ -5001,7 +5063,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="45" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="8">
         <v>2.18163761E9</v>
       </c>
@@ -5060,7 +5122,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8">
         <v>2.18163761E9</v>
       </c>
@@ -5109,7 +5171,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8">
         <v>4.035649049E9</v>
       </c>
@@ -5168,7 +5230,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8">
         <v>4.035649049E9</v>
       </c>
@@ -5217,7 +5279,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="49" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8">
         <v>1.019093033E9</v>
       </c>
@@ -5276,7 +5338,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8">
         <v>1.019093033E9</v>
       </c>
@@ -5325,7 +5387,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8">
         <v>2.936220551E9</v>
       </c>
@@ -5384,7 +5446,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8">
         <v>2.936220551E9</v>
       </c>
@@ -5433,7 +5495,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="53" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8">
         <v>1.886134458E9</v>
       </c>
@@ -5492,7 +5554,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="8">
         <v>1.886134458E9</v>
       </c>
@@ -5541,7 +5603,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="8">
         <v>2.879332689E9</v>
       </c>
@@ -5600,7 +5662,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="8">
         <v>2.879332689E9</v>
       </c>
@@ -5649,7 +5711,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8">
         <v>3.146393211E9</v>
       </c>
@@ -5708,7 +5770,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8">
         <v>3.146393211E9</v>
       </c>
@@ -5757,7 +5819,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="59" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8">
         <v>3.809293172E9</v>
       </c>
@@ -5816,7 +5878,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8">
         <v>3.809293172E9</v>
       </c>
@@ -5865,7 +5927,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8">
         <v>4.019205162E9</v>
       </c>
@@ -5924,7 +5986,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8">
         <v>4.019205162E9</v>
       </c>
@@ -5973,7 +6035,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8">
         <v>4.27781205E9</v>
       </c>
@@ -6032,7 +6094,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="64" ht="15.75" hidden="1" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8">
         <v>4.27781205E9</v>
       </c>
@@ -6081,7 +6143,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8">
         <v>1.609706685E9</v>
       </c>
@@ -6140,7 +6202,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8">
         <v>1.609706685E9</v>
       </c>
@@ -6189,7 +6251,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8">
         <v>3.398902089E9</v>
       </c>
@@ -6248,7 +6310,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8">
         <v>3.398902089E9</v>
       </c>
@@ -6297,7 +6359,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8">
         <v>3.093310941E9</v>
       </c>
@@ -6356,7 +6418,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8">
         <v>3.093310941E9</v>
       </c>
@@ -6405,7 +6467,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8">
         <v>1.576545447E9</v>
       </c>
@@ -6464,7 +6526,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8">
         <v>1.576545447E9</v>
       </c>
@@ -6513,7 +6575,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" hidden="1" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8">
         <v>3.796180663E9</v>
       </c>
@@ -6572,7 +6634,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8">
         <v>3.796180663E9</v>
       </c>
@@ -6621,7 +6683,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8">
         <v>1.770989706E9</v>
       </c>
@@ -6680,7 +6742,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8">
         <v>1.770989706E9</v>
       </c>
@@ -6729,7 +6791,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8">
         <v>2.456887548E9</v>
       </c>
@@ -6788,7 +6850,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8">
         <v>2.456887548E9</v>
       </c>
@@ -6837,7 +6899,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8">
         <v>5.18268671E8</v>
       </c>
@@ -6896,7 +6958,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8">
         <v>5.18268671E8</v>
       </c>
@@ -6945,7 +7007,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8">
         <v>9.57160695E8</v>
       </c>
@@ -7004,7 +7066,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8">
         <v>9.57160695E8</v>
       </c>
@@ -7053,7 +7115,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8">
         <v>3.00954867E9</v>
       </c>
@@ -7112,7 +7174,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8">
         <v>3.00954867E9</v>
       </c>
@@ -7161,7 +7223,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="85" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8">
         <v>3.448122334E9</v>
       </c>
@@ -7220,7 +7282,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8">
         <v>3.448122334E9</v>
       </c>
@@ -7269,7 +7331,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8">
         <v>2.497456347E9</v>
       </c>
@@ -7328,7 +7390,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8">
         <v>2.497456347E9</v>
       </c>
@@ -7377,7 +7439,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8">
         <v>3.660066725E9</v>
       </c>
@@ -7436,7 +7498,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8">
         <v>3.660066725E9</v>
       </c>
@@ -7485,7 +7547,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8">
         <v>3.783339081E9</v>
       </c>
@@ -7544,7 +7606,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8">
         <v>3.783339081E9</v>
       </c>
@@ -7593,7 +7655,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8">
         <v>3.095923626E9</v>
       </c>
@@ -7652,7 +7714,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8">
         <v>3.095923626E9</v>
       </c>
@@ -7701,7 +7763,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8">
         <v>8.5990093E7</v>
       </c>
@@ -7760,7 +7822,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8">
         <v>8.5990093E7</v>
       </c>
@@ -7809,7 +7871,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8">
         <v>8.6191824E7</v>
       </c>
@@ -7868,7 +7930,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8">
         <v>8.6191824E7</v>
       </c>
@@ -7917,7 +7979,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8">
         <v>8.18492192E8</v>
       </c>
@@ -7976,7 +8038,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8">
         <v>8.18492192E8</v>
       </c>
@@ -8025,7 +8087,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8">
         <v>1.47203129E8</v>
       </c>
@@ -8084,7 +8146,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8">
         <v>1.47203129E8</v>
       </c>
@@ -8133,7 +8195,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8">
         <v>1.23412197E8</v>
       </c>
@@ -8192,7 +8254,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8">
         <v>1.23412197E8</v>
       </c>
@@ -8241,7 +8303,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8">
         <v>1.118315889E9</v>
       </c>
@@ -8300,7 +8362,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8">
         <v>1.118315889E9</v>
       </c>
@@ -8349,7 +8411,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8">
         <v>1.315379489E9</v>
       </c>
@@ -8408,7 +8470,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8">
         <v>1.315379489E9</v>
       </c>
@@ -8457,7 +8519,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8">
         <v>1.374035721E9</v>
       </c>
@@ -8516,7 +8578,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8">
         <v>1.374035721E9</v>
       </c>
@@ -8565,7 +8627,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8">
         <v>1.426267857E9</v>
       </c>
@@ -8624,7 +8686,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="112" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="8">
         <v>1.426267857E9</v>
       </c>
@@ -8743,7 +8805,7 @@
       <c r="AA113" s="18"/>
       <c r="AB113" s="18"/>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8">
         <v>2.055153191E9</v>
       </c>
@@ -8862,7 +8924,7 @@
       <c r="AA115" s="18"/>
       <c r="AB115" s="18"/>
     </row>
-    <row r="116" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8">
         <v>2.273914836E9</v>
       </c>
@@ -8981,7 +9043,7 @@
       <c r="AA117" s="18"/>
       <c r="AB117" s="18"/>
     </row>
-    <row r="118" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8">
         <v>1.763513559E9</v>
       </c>
@@ -9100,7 +9162,7 @@
       <c r="AA119" s="18"/>
       <c r="AB119" s="18"/>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8">
         <v>1.345598079E9</v>
       </c>
@@ -9219,7 +9281,7 @@
       <c r="AA121" s="18"/>
       <c r="AB121" s="18"/>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8">
         <v>3.135645357E9</v>
       </c>
@@ -9269,76 +9331,76 @@
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="19">
+      <c r="A123" s="16">
         <v>3.856280479E9</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="16">
         <v>2021.0</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="I123" s="19" t="s">
+      <c r="I123" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J123" s="19" t="s">
+      <c r="J123" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="K123" s="19" t="s">
+      <c r="K123" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="L123" s="19">
+      <c r="L123" s="16">
         <v>35.0</v>
       </c>
-      <c r="M123" s="20" t="s">
+      <c r="M123" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="N123" s="20" t="s">
+      <c r="N123" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="O123" s="20" t="s">
+      <c r="O123" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="P123" s="20" t="s">
+      <c r="P123" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="Q123" s="20" t="s">
+      <c r="Q123" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="R123" s="19" t="s">
+      <c r="R123" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="S123" s="19">
+      <c r="S123" s="16">
         <v>1.0</v>
       </c>
-      <c r="T123" s="20" t="s">
+      <c r="T123" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="U123" s="21"/>
-      <c r="V123" s="21"/>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-    </row>
-    <row r="124" ht="15.75" hidden="1" customHeight="1">
+      <c r="U123" s="18"/>
+      <c r="V123" s="18"/>
+      <c r="W123" s="18"/>
+      <c r="X123" s="18"/>
+      <c r="Y123" s="18"/>
+      <c r="Z123" s="18"/>
+      <c r="AA123" s="18"/>
+      <c r="AB123" s="18"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8">
         <v>3.856280479E9</v>
       </c>
@@ -9457,7 +9519,7 @@
       <c r="AA125" s="18"/>
       <c r="AB125" s="18"/>
     </row>
-    <row r="126" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8">
         <v>2.609260641E9</v>
       </c>
@@ -9576,7 +9638,7 @@
       <c r="AA127" s="18"/>
       <c r="AB127" s="18"/>
     </row>
-    <row r="128" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8">
         <v>6.66050348E8</v>
       </c>
@@ -9662,13 +9724,13 @@
       <c r="L129" s="16">
         <v>38.0</v>
       </c>
-      <c r="M129" s="22" t="s">
+      <c r="M129" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N129" s="22" t="s">
+      <c r="N129" s="19" t="s">
         <v>578</v>
       </c>
-      <c r="O129" s="22" t="s">
+      <c r="O129" s="19" t="s">
         <v>579</v>
       </c>
       <c r="P129" s="17" t="s">
@@ -9695,7 +9757,7 @@
       <c r="AA129" s="18"/>
       <c r="AB129" s="18"/>
     </row>
-    <row r="130" ht="15.75" hidden="1" customHeight="1">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8">
         <v>1.637690235E9</v>
       </c>
@@ -9814,7 +9876,7 @@
       <c r="AA131" s="18"/>
       <c r="AB131" s="18"/>
     </row>
-    <row r="132" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8">
         <v>2.155422499E9</v>
       </c>
@@ -9933,7 +9995,7 @@
       <c r="AA133" s="18"/>
       <c r="AB133" s="18"/>
     </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8">
         <v>3.309250332E9</v>
       </c>
@@ -10052,7 +10114,7 @@
       <c r="AA135" s="18"/>
       <c r="AB135" s="18"/>
     </row>
-    <row r="136" ht="15.75" hidden="1" customHeight="1">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8">
         <v>3.625722965E9</v>
       </c>
@@ -10171,7 +10233,7 @@
       <c r="AA137" s="16"/>
       <c r="AB137" s="16"/>
     </row>
-    <row r="138" ht="15.75" hidden="1" customHeight="1">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8">
         <v>4.278392816E9</v>
       </c>
@@ -10290,7 +10352,7 @@
       <c r="AA139" s="18"/>
       <c r="AB139" s="18"/>
     </row>
-    <row r="140" ht="15.75" hidden="1" customHeight="1">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8">
         <v>5.66043228E8</v>
       </c>
@@ -10409,7 +10471,7 @@
       <c r="AA141" s="18"/>
       <c r="AB141" s="18"/>
     </row>
-    <row r="142" ht="15.75" hidden="1" customHeight="1">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8">
         <v>8.53680639E8</v>
       </c>
@@ -10528,7 +10590,7 @@
       <c r="AA143" s="18"/>
       <c r="AB143" s="18"/>
     </row>
-    <row r="144" ht="15.75" hidden="1" customHeight="1">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8">
         <v>3.637456466E9</v>
       </c>
@@ -10647,7 +10709,7 @@
       <c r="AA145" s="18"/>
       <c r="AB145" s="18"/>
     </row>
-    <row r="146" ht="15.75" hidden="1" customHeight="1">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8">
         <v>3.754172825E9</v>
       </c>
@@ -10697,76 +10759,76 @@
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="16">
+      <c r="A147" s="20">
         <v>1.296637108E9</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C147" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="D147" s="16">
+      <c r="D147" s="20">
         <v>2019.0</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="16" t="s">
+      <c r="F147" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="G147" s="16" t="s">
+      <c r="G147" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="H147" s="16" t="s">
+      <c r="H147" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I147" s="16" t="s">
+      <c r="I147" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="J147" s="16" t="s">
+      <c r="J147" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="K147" s="16" t="s">
+      <c r="K147" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="L147" s="16">
+      <c r="L147" s="20">
         <v>47.0</v>
       </c>
-      <c r="M147" s="17" t="s">
+      <c r="M147" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N147" s="17" t="s">
+      <c r="N147" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="O147" s="17" t="s">
+      <c r="O147" s="21" t="s">
         <v>661</v>
       </c>
-      <c r="P147" s="17" t="s">
+      <c r="P147" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="Q147" s="17" t="s">
+      <c r="Q147" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="R147" s="16" t="s">
+      <c r="R147" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="S147" s="16">
+      <c r="S147" s="20">
         <v>1.0</v>
       </c>
-      <c r="T147" s="17" t="s">
+      <c r="T147" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="U147" s="18"/>
-      <c r="V147" s="18"/>
-      <c r="W147" s="18"/>
-      <c r="X147" s="18"/>
-      <c r="Y147" s="18"/>
-      <c r="Z147" s="18"/>
-      <c r="AA147" s="18"/>
-      <c r="AB147" s="18"/>
-    </row>
-    <row r="148" ht="15.75" hidden="1" customHeight="1">
+      <c r="U147" s="22"/>
+      <c r="V147" s="22"/>
+      <c r="W147" s="22"/>
+      <c r="X147" s="22"/>
+      <c r="Y147" s="22"/>
+      <c r="Z147" s="22"/>
+      <c r="AA147" s="22"/>
+      <c r="AB147" s="22"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8">
         <v>1.296637108E9</v>
       </c>
@@ -29582,18 +29644,7 @@
       <c r="T1001" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AB$148">
-    <filterColumn colId="18">
-      <filters blank="1">
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <filters blank="1">
-        <filter val="Clayton"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$AB$148"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
@@ -29750,7 +29801,7 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="8">
         <v>1.326191931E9</v>
       </c>
@@ -29801,7 +29852,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="8">
         <v>1.326191931E9</v>
       </c>
@@ -29852,7 +29903,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="8">
         <v>1.469065963E9</v>
       </c>
@@ -29903,7 +29954,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="8">
         <v>1.469065963E9</v>
       </c>
@@ -29954,7 +30005,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="8">
         <v>1.598166515E9</v>
       </c>
@@ -30005,7 +30056,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="8">
         <v>1.598166515E9</v>
       </c>
@@ -30056,7 +30107,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="8">
         <v>1.877483551E9</v>
       </c>
@@ -30107,7 +30158,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="8">
         <v>1.877483551E9</v>
       </c>
@@ -30158,7 +30209,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="8">
         <v>2.000036002E9</v>
       </c>
@@ -30209,7 +30260,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="8">
         <v>2.000036002E9</v>
       </c>
@@ -30260,7 +30311,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="8">
         <v>2.070224207E9</v>
       </c>
@@ -30311,7 +30362,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="8">
         <v>2.070224207E9</v>
       </c>
@@ -30362,7 +30413,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="8">
         <v>2.634033325E9</v>
       </c>
@@ -30413,7 +30464,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="8">
         <v>2.634033325E9</v>
       </c>
@@ -30464,7 +30515,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="8">
         <v>3.051560548E9</v>
       </c>
@@ -30515,7 +30566,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="8">
         <v>3.051560548E9</v>
       </c>
@@ -30566,7 +30617,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="8">
         <v>3.339002981E9</v>
       </c>
@@ -30617,7 +30668,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="8">
         <v>3.339002981E9</v>
       </c>
@@ -30668,7 +30719,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="8">
         <v>3.408664396E9</v>
       </c>
@@ -30719,7 +30770,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8">
         <v>3.408664396E9</v>
       </c>
@@ -30770,7 +30821,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8">
         <v>8.04659204E8</v>
       </c>
@@ -30821,7 +30872,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8">
         <v>8.04659204E8</v>
       </c>
@@ -30872,7 +30923,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8">
         <v>1.581261659E9</v>
       </c>
@@ -30923,7 +30974,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8">
         <v>1.581261659E9</v>
       </c>
@@ -30974,7 +31025,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8">
         <v>2.836996318E9</v>
       </c>
@@ -31025,7 +31076,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8">
         <v>2.836996318E9</v>
       </c>
@@ -31076,7 +31127,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8">
         <v>3.2184286E7</v>
       </c>
@@ -31127,7 +31178,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8">
         <v>3.2184286E7</v>
       </c>
@@ -31178,7 +31229,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8">
         <v>4.33919853E8</v>
       </c>
@@ -31229,7 +31280,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="8">
         <v>4.33919853E8</v>
       </c>
@@ -31280,7 +31331,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="33" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="8">
         <v>4.83140962E8</v>
       </c>
@@ -31331,7 +31382,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="8">
         <v>4.83140962E8</v>
       </c>
@@ -31382,7 +31433,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="8">
         <v>3.308658121E9</v>
       </c>
@@ -31433,7 +31484,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="8">
         <v>3.308658121E9</v>
       </c>
@@ -31484,7 +31535,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="8">
         <v>1.847468084E9</v>
       </c>
@@ -31535,7 +31586,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="8">
         <v>1.847468084E9</v>
       </c>
@@ -31586,7 +31637,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8">
         <v>2.345021698E9</v>
       </c>
@@ -31637,7 +31688,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="8">
         <v>2.345021698E9</v>
       </c>
@@ -31688,7 +31739,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="8">
         <v>3.796643912E9</v>
       </c>
@@ -31742,7 +31793,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="8">
         <v>3.796643912E9</v>
       </c>
@@ -31793,7 +31844,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="8">
         <v>2.05660768E8</v>
       </c>
@@ -31844,7 +31895,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="8">
         <v>2.05660768E8</v>
       </c>
@@ -31895,7 +31946,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="45" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="8">
         <v>2.18163761E9</v>
       </c>
@@ -31946,7 +31997,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="8">
         <v>2.18163761E9</v>
       </c>
@@ -31997,7 +32048,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="8">
         <v>4.035649049E9</v>
       </c>
@@ -32048,7 +32099,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="48" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="8">
         <v>4.035649049E9</v>
       </c>
@@ -32099,7 +32150,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="49" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="8">
         <v>1.019093033E9</v>
       </c>
@@ -32150,7 +32201,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="8">
         <v>1.019093033E9</v>
       </c>
@@ -32201,7 +32252,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="8">
         <v>2.936220551E9</v>
       </c>
@@ -32252,7 +32303,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8">
         <v>2.936220551E9</v>
       </c>
@@ -32303,7 +32354,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="53" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="8">
         <v>1.886134458E9</v>
       </c>
@@ -32354,7 +32405,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="8">
         <v>1.886134458E9</v>
       </c>
@@ -32405,7 +32456,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="8">
         <v>2.879332689E9</v>
       </c>
@@ -32456,7 +32507,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="8">
         <v>2.879332689E9</v>
       </c>
@@ -32507,7 +32558,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="8">
         <v>3.146393211E9</v>
       </c>
@@ -32558,7 +32609,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="8">
         <v>3.146393211E9</v>
       </c>
@@ -32609,7 +32660,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="59" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="8">
         <v>3.809293172E9</v>
       </c>
@@ -32660,7 +32711,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="8">
         <v>3.809293172E9</v>
       </c>
@@ -32711,7 +32762,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="8">
         <v>4.019205162E9</v>
       </c>
@@ -32762,7 +32813,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="8">
         <v>4.019205162E9</v>
       </c>
@@ -32813,7 +32864,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="8">
         <v>4.27781205E9</v>
       </c>
@@ -32864,7 +32915,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="64" ht="15.75" hidden="1" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="8">
         <v>4.27781205E9</v>
       </c>
@@ -32915,7 +32966,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="8">
         <v>1.609706685E9</v>
       </c>
@@ -32966,7 +33017,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="8">
         <v>1.609706685E9</v>
       </c>
@@ -33017,7 +33068,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="8">
         <v>3.398902089E9</v>
       </c>
@@ -33068,7 +33119,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="8">
         <v>3.398902089E9</v>
       </c>
@@ -33119,7 +33170,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="8">
         <v>3.093310941E9</v>
       </c>
@@ -33170,7 +33221,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="8">
         <v>3.093310941E9</v>
       </c>
@@ -33221,7 +33272,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="8">
         <v>1.576545447E9</v>
       </c>
@@ -33272,7 +33323,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="8">
         <v>1.576545447E9</v>
       </c>
@@ -33323,7 +33374,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="73" ht="15.75" hidden="1" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="8">
         <v>3.796180663E9</v>
       </c>
@@ -33374,7 +33425,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="8">
         <v>3.796180663E9</v>
       </c>
@@ -33425,7 +33476,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="8">
         <v>1.770989706E9</v>
       </c>
@@ -33476,7 +33527,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="76" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="8">
         <v>1.770989706E9</v>
       </c>
@@ -33527,7 +33578,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="8">
         <v>2.456887548E9</v>
       </c>
@@ -33578,7 +33629,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="8">
         <v>2.456887548E9</v>
       </c>
@@ -33629,7 +33680,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="79" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="8">
         <v>5.18268671E8</v>
       </c>
@@ -33680,7 +33731,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="80" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="8">
         <v>5.18268671E8</v>
       </c>
@@ -33731,7 +33782,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8">
         <v>9.57160695E8</v>
       </c>
@@ -33782,7 +33833,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="82" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="8">
         <v>9.57160695E8</v>
       </c>
@@ -33833,7 +33884,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="8">
         <v>3.00954867E9</v>
       </c>
@@ -33884,7 +33935,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="84" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="8">
         <v>3.00954867E9</v>
       </c>
@@ -33935,7 +33986,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="85" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="8">
         <v>3.448122334E9</v>
       </c>
@@ -33986,7 +34037,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="8">
         <v>3.448122334E9</v>
       </c>
@@ -34037,7 +34088,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="8">
         <v>2.497456347E9</v>
       </c>
@@ -34088,7 +34139,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="88" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="8">
         <v>2.497456347E9</v>
       </c>
@@ -34139,7 +34190,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="8">
         <v>3.660066725E9</v>
       </c>
@@ -34190,7 +34241,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="8">
         <v>3.660066725E9</v>
       </c>
@@ -34241,7 +34292,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="8">
         <v>3.783339081E9</v>
       </c>
@@ -34292,7 +34343,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="8">
         <v>3.783339081E9</v>
       </c>
@@ -34343,7 +34394,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="93" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="8">
         <v>3.095923626E9</v>
       </c>
@@ -34394,7 +34445,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="94" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="8">
         <v>3.095923626E9</v>
       </c>
@@ -34445,7 +34496,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="8">
         <v>8.5990093E7</v>
       </c>
@@ -34496,7 +34547,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="8">
         <v>8.5990093E7</v>
       </c>
@@ -34547,7 +34598,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="8">
         <v>8.6191824E7</v>
       </c>
@@ -34598,7 +34649,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="98" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="8">
         <v>8.6191824E7</v>
       </c>
@@ -34649,7 +34700,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="8">
         <v>8.18492192E8</v>
       </c>
@@ -34700,7 +34751,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="8">
         <v>8.18492192E8</v>
       </c>
@@ -34751,7 +34802,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="8">
         <v>1.47203129E8</v>
       </c>
@@ -34802,7 +34853,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="8">
         <v>1.47203129E8</v>
       </c>
@@ -34853,7 +34904,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="8">
         <v>1.23412197E8</v>
       </c>
@@ -34904,7 +34955,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="104" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="8">
         <v>1.23412197E8</v>
       </c>
@@ -34955,7 +35006,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="105" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="8">
         <v>1.118315889E9</v>
       </c>
@@ -35006,7 +35057,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="8">
         <v>1.118315889E9</v>
       </c>
@@ -35057,7 +35108,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="8">
         <v>1.315379489E9</v>
       </c>
@@ -35108,7 +35159,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="8">
         <v>1.315379489E9</v>
       </c>
@@ -35159,7 +35210,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="8">
         <v>1.374035721E9</v>
       </c>
@@ -35210,7 +35261,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="8">
         <v>1.374035721E9</v>
       </c>
@@ -35261,7 +35312,7 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="8">
         <v>1.426267857E9</v>
       </c>
@@ -35312,7 +35363,7 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="112" ht="30.0" hidden="1" customHeight="1">
+    <row r="112" ht="30.0" customHeight="1">
       <c r="A112" s="8">
         <v>1.426267857E9</v>
       </c>
@@ -35439,7 +35490,7 @@
       <c r="AC113" s="26"/>
       <c r="AD113" s="26"/>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8">
         <v>2.055153191E9</v>
       </c>
@@ -35566,7 +35617,7 @@
       <c r="AC115" s="26"/>
       <c r="AD115" s="26"/>
     </row>
-    <row r="116" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8">
         <v>2.273914836E9</v>
       </c>
@@ -35693,7 +35744,7 @@
       <c r="AC117" s="26"/>
       <c r="AD117" s="26"/>
     </row>
-    <row r="118" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8">
         <v>1.763513559E9</v>
       </c>
@@ -35820,7 +35871,7 @@
       <c r="AC119" s="26"/>
       <c r="AD119" s="26"/>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8">
         <v>1.345598079E9</v>
       </c>
@@ -35947,7 +35998,7 @@
       <c r="AC121" s="26"/>
       <c r="AD121" s="26"/>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8">
         <v>3.135645357E9</v>
       </c>
@@ -35999,68 +36050,82 @@
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="19">
+      <c r="A123" s="24">
         <v>3.856280479E9</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="19">
+      <c r="D123" s="24">
         <v>2021.0</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="H123" s="19" t="s">
+      <c r="H123" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="I123" s="19" t="s">
+      <c r="I123" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J123" s="19" t="s">
+      <c r="J123" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="K123" s="19" t="s">
+      <c r="K123" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="L123" s="19">
+      <c r="L123" s="24">
         <v>35.0</v>
       </c>
-      <c r="M123" s="20"/>
-      <c r="N123" s="20"/>
-      <c r="O123" s="20"/>
-      <c r="P123" s="20"/>
-      <c r="Q123" s="20"/>
-      <c r="R123" s="20"/>
-      <c r="S123" s="20"/>
-      <c r="T123" s="19" t="s">
+      <c r="M123" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N123" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="O123" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="P123" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q123" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="R123" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="S123" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="T123" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U123" s="19">
+      <c r="U123" s="24">
         <v>1.0</v>
       </c>
-      <c r="V123" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="W123" s="21"/>
-      <c r="X123" s="21"/>
-      <c r="Y123" s="21"/>
-      <c r="Z123" s="21"/>
-      <c r="AA123" s="21"/>
-      <c r="AB123" s="21"/>
-      <c r="AC123" s="21"/>
-      <c r="AD123" s="21"/>
-    </row>
-    <row r="124" ht="15.75" hidden="1" customHeight="1">
+      <c r="V123" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="W123" s="26"/>
+      <c r="X123" s="26"/>
+      <c r="Y123" s="26"/>
+      <c r="Z123" s="26"/>
+      <c r="AA123" s="26"/>
+      <c r="AB123" s="26"/>
+      <c r="AC123" s="26"/>
+      <c r="AD123" s="26"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8">
         <v>3.856280479E9</v>
       </c>
@@ -36112,60 +36177,82 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="23">
+      <c r="A125" s="24">
         <v>2.609260641E9</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D125" s="24">
         <v>2022.0</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="F125" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I125" s="23" t="s">
+      <c r="I125" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="K125" s="23" t="s">
+      <c r="K125" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="L125" s="23">
+      <c r="L125" s="24">
         <v>36.0</v>
       </c>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-      <c r="Q125" s="10"/>
-      <c r="R125" s="10"/>
-      <c r="S125" s="10"/>
-      <c r="T125" s="23" t="s">
+      <c r="M125" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N125" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="O125" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="P125" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q125" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="R125" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="S125" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="T125" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U125" s="23">
+      <c r="U125" s="24">
         <v>1.0</v>
       </c>
-      <c r="V125" s="27" t="s">
+      <c r="V125" s="25" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="126" ht="15.75" hidden="1" customHeight="1">
+      <c r="W125" s="26"/>
+      <c r="X125" s="26"/>
+      <c r="Y125" s="26"/>
+      <c r="Z125" s="26"/>
+      <c r="AA125" s="26"/>
+      <c r="AB125" s="26"/>
+      <c r="AC125" s="26"/>
+      <c r="AD125" s="26"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8">
         <v>2.609260641E9</v>
       </c>
@@ -36217,60 +36304,82 @@
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="23">
+      <c r="A127" s="24">
         <v>6.66050348E8</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B127" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D127" s="24">
         <v>2021.0</v>
       </c>
-      <c r="E127" s="23" t="s">
+      <c r="E127" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F127" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="G127" s="23" t="s">
+      <c r="G127" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="H127" s="23" t="s">
+      <c r="H127" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I127" s="23" t="s">
+      <c r="I127" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="J127" s="23" t="s">
+      <c r="J127" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="K127" s="23" t="s">
+      <c r="K127" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="L127" s="23">
+      <c r="L127" s="24">
         <v>37.0</v>
       </c>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="10"/>
-      <c r="R127" s="10"/>
-      <c r="S127" s="10"/>
-      <c r="T127" s="23" t="s">
+      <c r="M127" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N127" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="O127" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="P127" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q127" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="R127" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="S127" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="T127" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U127" s="23">
+      <c r="U127" s="24">
         <v>1.0</v>
       </c>
-      <c r="V127" s="27" t="s">
+      <c r="V127" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="128" ht="15.75" hidden="1" customHeight="1">
+      <c r="W127" s="26"/>
+      <c r="X127" s="26"/>
+      <c r="Y127" s="26"/>
+      <c r="Z127" s="26"/>
+      <c r="AA127" s="26"/>
+      <c r="AB127" s="26"/>
+      <c r="AC127" s="26"/>
+      <c r="AD127" s="26"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8">
         <v>6.66050348E8</v>
       </c>
@@ -36322,60 +36431,82 @@
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="23">
+      <c r="A129" s="24">
         <v>1.637690235E9</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D129" s="24">
         <v>2018.0</v>
       </c>
-      <c r="E129" s="23" t="s">
+      <c r="E129" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="23" t="s">
+      <c r="F129" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="G129" s="23" t="s">
+      <c r="G129" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="H129" s="23" t="s">
+      <c r="H129" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="I129" s="23" t="s">
+      <c r="I129" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J129" s="23" t="s">
+      <c r="J129" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="K129" s="23" t="s">
+      <c r="K129" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="L129" s="23">
+      <c r="L129" s="24">
         <v>38.0</v>
       </c>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
-      <c r="R129" s="10"/>
-      <c r="S129" s="10"/>
-      <c r="T129" s="23" t="s">
+      <c r="M129" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N129" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="O129" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="P129" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q129" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="R129" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="S129" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="T129" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U129" s="23">
+      <c r="U129" s="24">
         <v>1.0</v>
       </c>
-      <c r="V129" s="27" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" hidden="1" customHeight="1">
+      <c r="V129" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="W129" s="26"/>
+      <c r="X129" s="26"/>
+      <c r="Y129" s="26"/>
+      <c r="Z129" s="26"/>
+      <c r="AA129" s="26"/>
+      <c r="AB129" s="26"/>
+      <c r="AC129" s="26"/>
+      <c r="AD129" s="26"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8">
         <v>1.637690235E9</v>
       </c>
@@ -36427,60 +36558,82 @@
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="23">
+      <c r="A131" s="24">
         <v>2.155422499E9</v>
       </c>
-      <c r="B131" s="23" t="s">
+      <c r="B131" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="D131" s="23">
+      <c r="D131" s="24">
         <v>2022.0</v>
       </c>
-      <c r="E131" s="23" t="s">
+      <c r="E131" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F131" s="23" t="s">
+      <c r="F131" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G131" s="23" t="s">
+      <c r="G131" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="H131" s="23" t="s">
+      <c r="H131" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I131" s="23" t="s">
+      <c r="I131" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="J131" s="23" t="s">
+      <c r="J131" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="K131" s="23" t="s">
+      <c r="K131" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="L131" s="23">
+      <c r="L131" s="24">
         <v>39.0</v>
       </c>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="10"/>
-      <c r="S131" s="10"/>
-      <c r="T131" s="23" t="s">
+      <c r="M131" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N131" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="O131" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="P131" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q131" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="R131" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="S131" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="T131" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U131" s="23">
+      <c r="U131" s="24">
         <v>1.0</v>
       </c>
-      <c r="V131" s="27" t="s">
+      <c r="V131" s="25" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="132" ht="15.75" hidden="1" customHeight="1">
+      <c r="W131" s="26"/>
+      <c r="X131" s="26"/>
+      <c r="Y131" s="26"/>
+      <c r="Z131" s="26"/>
+      <c r="AA131" s="26"/>
+      <c r="AB131" s="26"/>
+      <c r="AC131" s="26"/>
+      <c r="AD131" s="26"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8">
         <v>2.155422499E9</v>
       </c>
@@ -36532,60 +36685,82 @@
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="23">
+      <c r="A133" s="24">
         <v>3.309250332E9</v>
       </c>
-      <c r="B133" s="23" t="s">
+      <c r="B133" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="D133" s="23">
+      <c r="D133" s="24">
         <v>2018.0</v>
       </c>
-      <c r="E133" s="23" t="s">
+      <c r="E133" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F133" s="23" t="s">
+      <c r="F133" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="G133" s="23" t="s">
+      <c r="G133" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="H133" s="23" t="s">
+      <c r="H133" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="I133" s="23" t="s">
+      <c r="I133" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J133" s="23" t="s">
+      <c r="J133" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="K133" s="23" t="s">
+      <c r="K133" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L133" s="23">
+      <c r="L133" s="24">
         <v>40.0</v>
       </c>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-      <c r="R133" s="10"/>
-      <c r="S133" s="10"/>
-      <c r="T133" s="23" t="s">
+      <c r="M133" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N133" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="O133" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="P133" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q133" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="R133" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="S133" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="T133" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U133" s="23">
+      <c r="U133" s="24">
         <v>1.0</v>
       </c>
-      <c r="V133" s="27" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+      <c r="V133" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="W133" s="26"/>
+      <c r="X133" s="26"/>
+      <c r="Y133" s="26"/>
+      <c r="Z133" s="26"/>
+      <c r="AA133" s="26"/>
+      <c r="AB133" s="26"/>
+      <c r="AC133" s="26"/>
+      <c r="AD133" s="26"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8">
         <v>3.309250332E9</v>
       </c>
@@ -36637,60 +36812,82 @@
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="23">
+      <c r="A135" s="24">
         <v>3.625722965E9</v>
       </c>
-      <c r="B135" s="23" t="s">
+      <c r="B135" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="D135" s="23">
+      <c r="D135" s="24">
         <v>2021.0</v>
       </c>
-      <c r="E135" s="23" t="s">
+      <c r="E135" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F135" s="23" t="s">
+      <c r="F135" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="G135" s="23" t="s">
+      <c r="G135" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="H135" s="23" t="s">
+      <c r="H135" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="I135" s="23" t="s">
+      <c r="I135" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J135" s="23" t="s">
+      <c r="J135" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="K135" s="23" t="s">
+      <c r="K135" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="L135" s="23">
+      <c r="L135" s="24">
         <v>41.0</v>
       </c>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="10"/>
-      <c r="P135" s="10"/>
-      <c r="Q135" s="10"/>
-      <c r="R135" s="10"/>
-      <c r="S135" s="10"/>
-      <c r="T135" s="23" t="s">
+      <c r="M135" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N135" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="O135" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="P135" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q135" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="R135" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="S135" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="T135" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U135" s="23">
+      <c r="U135" s="24">
         <v>1.0</v>
       </c>
-      <c r="V135" s="27" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" hidden="1" customHeight="1">
+      <c r="V135" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="W135" s="26"/>
+      <c r="X135" s="26"/>
+      <c r="Y135" s="26"/>
+      <c r="Z135" s="26"/>
+      <c r="AA135" s="26"/>
+      <c r="AB135" s="26"/>
+      <c r="AC135" s="26"/>
+      <c r="AD135" s="26"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8">
         <v>3.625722965E9</v>
       </c>
@@ -36742,68 +36939,82 @@
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="23">
+      <c r="A137" s="24">
         <v>4.278392816E9</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="D137" s="23">
+      <c r="D137" s="24">
         <v>2019.0</v>
       </c>
-      <c r="E137" s="23" t="s">
+      <c r="E137" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F137" s="23" t="s">
+      <c r="F137" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="G137" s="23" t="s">
+      <c r="G137" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="H137" s="23" t="s">
+      <c r="H137" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="I137" s="23" t="s">
+      <c r="I137" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J137" s="23" t="s">
+      <c r="J137" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="K137" s="23" t="s">
+      <c r="K137" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="L137" s="23">
+      <c r="L137" s="24">
         <v>42.0</v>
       </c>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="10"/>
-      <c r="P137" s="10"/>
-      <c r="Q137" s="10"/>
-      <c r="R137" s="10"/>
-      <c r="S137" s="10"/>
-      <c r="T137" s="23" t="s">
+      <c r="M137" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N137" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="O137" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="P137" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q137" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="R137" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="S137" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="T137" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U137" s="23">
+      <c r="U137" s="24">
         <v>1.0</v>
       </c>
       <c r="V137" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="W137" s="23"/>
-      <c r="X137" s="23"/>
-      <c r="Y137" s="23"/>
-      <c r="Z137" s="23"/>
-      <c r="AA137" s="23"/>
-      <c r="AB137" s="23"/>
-      <c r="AC137" s="23"/>
-      <c r="AD137" s="23"/>
-    </row>
-    <row r="138" ht="15.75" hidden="1" customHeight="1">
+        <v>704</v>
+      </c>
+      <c r="W137" s="24"/>
+      <c r="X137" s="24"/>
+      <c r="Y137" s="24"/>
+      <c r="Z137" s="24"/>
+      <c r="AA137" s="24"/>
+      <c r="AB137" s="24"/>
+      <c r="AC137" s="24"/>
+      <c r="AD137" s="24"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8">
         <v>4.278392816E9</v>
       </c>
@@ -36855,60 +37066,82 @@
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="23">
+      <c r="A139" s="24">
         <v>5.66043228E8</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="D139" s="23">
+      <c r="D139" s="24">
         <v>2021.0</v>
       </c>
-      <c r="E139" s="23" t="s">
+      <c r="E139" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F139" s="23" t="s">
+      <c r="F139" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G139" s="23" t="s">
+      <c r="G139" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="H139" s="23" t="s">
+      <c r="H139" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I139" s="23" t="s">
+      <c r="I139" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J139" s="23" t="s">
+      <c r="J139" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="K139" s="23" t="s">
+      <c r="K139" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="L139" s="23">
+      <c r="L139" s="24">
         <v>43.0</v>
       </c>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="10"/>
-      <c r="Q139" s="10"/>
-      <c r="R139" s="10"/>
-      <c r="S139" s="10"/>
-      <c r="T139" s="23" t="s">
+      <c r="M139" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N139" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="O139" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="P139" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q139" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="R139" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="S139" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="T139" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U139" s="23">
+      <c r="U139" s="24">
         <v>1.0</v>
       </c>
-      <c r="V139" s="27" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" hidden="1" customHeight="1">
+      <c r="V139" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="W139" s="26"/>
+      <c r="X139" s="26"/>
+      <c r="Y139" s="26"/>
+      <c r="Z139" s="26"/>
+      <c r="AA139" s="26"/>
+      <c r="AB139" s="26"/>
+      <c r="AC139" s="26"/>
+      <c r="AD139" s="26"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8">
         <v>5.66043228E8</v>
       </c>
@@ -36960,60 +37193,82 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="23">
+      <c r="A141" s="24">
         <v>8.53680639E8</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="D141" s="23">
+      <c r="D141" s="24">
         <v>2019.0</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="E141" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F141" s="23" t="s">
+      <c r="F141" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="G141" s="23" t="s">
+      <c r="G141" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="H141" s="23" t="s">
+      <c r="H141" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I141" s="23" t="s">
+      <c r="I141" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J141" s="23" t="s">
+      <c r="J141" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="K141" s="23" t="s">
+      <c r="K141" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L141" s="23">
+      <c r="L141" s="24">
         <v>44.0</v>
       </c>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10"/>
-      <c r="R141" s="10"/>
-      <c r="S141" s="10"/>
-      <c r="T141" s="23" t="s">
+      <c r="M141" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N141" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="O141" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="P141" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q141" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="R141" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="S141" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="T141" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U141" s="23">
+      <c r="U141" s="24">
         <v>1.0</v>
       </c>
       <c r="V141" s="27" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" hidden="1" customHeight="1">
+        <v>706</v>
+      </c>
+      <c r="W141" s="26"/>
+      <c r="X141" s="26"/>
+      <c r="Y141" s="26"/>
+      <c r="Z141" s="26"/>
+      <c r="AA141" s="26"/>
+      <c r="AB141" s="26"/>
+      <c r="AC141" s="26"/>
+      <c r="AD141" s="26"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8">
         <v>8.53680639E8</v>
       </c>
@@ -37065,60 +37320,82 @@
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="23">
+      <c r="A143" s="24">
         <v>3.637456466E9</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="C143" s="23" t="s">
+      <c r="C143" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="D143" s="23">
+      <c r="D143" s="24">
         <v>2020.0</v>
       </c>
-      <c r="E143" s="23" t="s">
+      <c r="E143" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F143" s="23" t="s">
+      <c r="F143" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="G143" s="23" t="s">
+      <c r="G143" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="H143" s="23" t="s">
+      <c r="H143" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="I143" s="23" t="s">
+      <c r="I143" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="J143" s="23" t="s">
+      <c r="J143" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="K143" s="23" t="s">
+      <c r="K143" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="L143" s="23">
+      <c r="L143" s="24">
         <v>45.0</v>
       </c>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
-      <c r="O143" s="10"/>
-      <c r="P143" s="10"/>
-      <c r="Q143" s="10"/>
-      <c r="R143" s="10"/>
-      <c r="S143" s="10"/>
-      <c r="T143" s="23" t="s">
+      <c r="M143" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="N143" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="O143" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="P143" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q143" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="R143" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="S143" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="T143" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U143" s="23">
+      <c r="U143" s="24">
         <v>1.0</v>
       </c>
-      <c r="V143" s="27" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" hidden="1" customHeight="1">
+      <c r="V143" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="W143" s="26"/>
+      <c r="X143" s="26"/>
+      <c r="Y143" s="26"/>
+      <c r="Z143" s="26"/>
+      <c r="AA143" s="26"/>
+      <c r="AB143" s="26"/>
+      <c r="AC143" s="26"/>
+      <c r="AD143" s="26"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8">
         <v>3.637456466E9</v>
       </c>
@@ -37170,60 +37447,82 @@
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="23">
+      <c r="A145" s="24">
         <v>3.754172825E9</v>
       </c>
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="D145" s="23">
+      <c r="D145" s="24">
         <v>2022.0</v>
       </c>
-      <c r="E145" s="23" t="s">
+      <c r="E145" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F145" s="23" t="s">
+      <c r="F145" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G145" s="23" t="s">
+      <c r="G145" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="H145" s="23" t="s">
+      <c r="H145" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I145" s="23" t="s">
+      <c r="I145" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="J145" s="23" t="s">
+      <c r="J145" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="K145" s="23" t="s">
+      <c r="K145" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="L145" s="23">
+      <c r="L145" s="24">
         <v>46.0</v>
       </c>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="10"/>
-      <c r="Q145" s="10"/>
-      <c r="R145" s="10"/>
-      <c r="S145" s="10"/>
-      <c r="T145" s="23" t="s">
+      <c r="M145" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="N145" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="O145" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="P145" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q145" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="R145" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="S145" s="25" t="s">
+        <v>654</v>
+      </c>
+      <c r="T145" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U145" s="23">
+      <c r="U145" s="24">
         <v>1.0</v>
       </c>
-      <c r="V145" s="27" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="146" ht="15.75" hidden="1" customHeight="1">
+      <c r="V145" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="W145" s="26"/>
+      <c r="X145" s="26"/>
+      <c r="Y145" s="26"/>
+      <c r="Z145" s="26"/>
+      <c r="AA145" s="26"/>
+      <c r="AB145" s="26"/>
+      <c r="AC145" s="26"/>
+      <c r="AD145" s="26"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8">
         <v>3.754172825E9</v>
       </c>
@@ -37275,60 +37574,82 @@
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="23">
+      <c r="A147" s="24">
         <v>1.296637108E9</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="D147" s="23">
+      <c r="D147" s="24">
         <v>2019.0</v>
       </c>
-      <c r="E147" s="23" t="s">
+      <c r="E147" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="23" t="s">
+      <c r="F147" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="G147" s="23" t="s">
+      <c r="G147" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="H147" s="23" t="s">
+      <c r="H147" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I147" s="23" t="s">
+      <c r="I147" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="J147" s="23" t="s">
+      <c r="J147" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="K147" s="23" t="s">
+      <c r="K147" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="L147" s="23">
+      <c r="L147" s="24">
         <v>47.0</v>
       </c>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
-      <c r="Q147" s="10"/>
-      <c r="R147" s="10"/>
-      <c r="S147" s="10"/>
-      <c r="T147" s="23" t="s">
+      <c r="M147" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N147" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="O147" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="P147" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q147" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="R147" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="S147" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="T147" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="U147" s="23">
+      <c r="U147" s="24">
         <v>1.0</v>
       </c>
       <c r="V147" s="27" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="148" ht="15.75" hidden="1" customHeight="1">
+        <v>711</v>
+      </c>
+      <c r="W147" s="26"/>
+      <c r="X147" s="26"/>
+      <c r="Y147" s="26"/>
+      <c r="Z147" s="26"/>
+      <c r="AA147" s="26"/>
+      <c r="AB147" s="26"/>
+      <c r="AC147" s="26"/>
+      <c r="AD147" s="26"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8">
         <v>1.296637108E9</v>
       </c>
@@ -57852,18 +58173,7 @@
       <c r="V1001" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AD$148">
-    <filterColumn colId="20">
-      <filters blank="1">
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <filters blank="1">
-        <filter val="Clayton"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$AD$148"/>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>

--- a/S18_Environment_Feature_Extraction.xlsx
+++ b/S18_Environment_Feature_Extraction.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="784">
   <si>
     <t>UUID</t>
   </si>
@@ -2156,7 +2156,7 @@
     <t>STEM, humanities, psychomotor skills, other, unspecified</t>
   </si>
   <si>
-    <t>individual, multi-person, both, unspecified</t>
+    <t>individual, multi-person, unspecified</t>
   </si>
   <si>
     <t>instructional, training, informal, unspecified</t>
@@ -2171,26 +2171,287 @@
     <t>(not discretized)</t>
   </si>
   <si>
+    <t>STEM</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>instructional</t>
+  </si>
+  <si>
+    <t>model-based</t>
+  </si>
+  <si>
+    <t>multi-person</t>
+  </si>
+  <si>
+    <t>K-12</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>informal?</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>Authors conclude that the feature combination of gaze and physiological MMD provide the most accurate predictions of correct answers. They also show the feasibility of early prediction of children's performance by using half (as oppose to full) data lengths to extract features and predict correctness.</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>humanities</t>
+  </si>
+  <si>
+    <t>informal</t>
+  </si>
+  <si>
+    <t>model-free</t>
+  </si>
+  <si>
+    <t>Presented a novel methodology for the automatic recognition of student engagement in prosocial games aiming to capture the different dimensions of engagement, i.e., behavioral, cognitive, and affective, by exploiting real-time engagement cues from different input modalities (body motion and facial expression analysis to identify the affective state of students, features related to their cognitive and behavioral engagement based on the analysis of their interaction with the game)</t>
+  </si>
+  <si>
+    <t>invididual</t>
+  </si>
+  <si>
+    <t>uses 3rd party model but for augmenting qualitative</t>
+  </si>
+  <si>
+    <t>social network analysis as a possible model-based?</t>
+  </si>
+  <si>
+    <t>statistical model -&gt; model-free</t>
+  </si>
+  <si>
+    <t>Relating to cognitive load theory as their model</t>
+  </si>
+  <si>
+    <t>Relating their research to Roschelle's 1992 framework of convergent conceptual change for collaboration</t>
+  </si>
+  <si>
+    <t>Data stories</t>
+  </si>
+  <si>
+    <t>Data imputation</t>
+  </si>
+  <si>
+    <t>Predicting student drop-out from LMS data</t>
+  </si>
+  <si>
+    <t>undergraduate, K-12</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Model Based</t>
+  </si>
+  <si>
+    <t>We found that idling with limited speech (i.e., silence or backchannel feedback only) and without movement was negatively correlated with task performance and with participants’ subjective perceptions of the collaboration. However, being silent and focused during solution execution was positively correlated with task performance. Results illustrate that in some cases, multimodal patterns improved the predictions and improved explanatory power over the unimodal primitives.</t>
+  </si>
+  <si>
+    <t>"Here, we examine unimodal primitives (activity on the screen, speech, and body movements), and their multimodal combinations during remote CPS."
+Mixed findings for uni-  versus multi-modal:
+"These results lead us to question: are the multimodal patterns better than the unimodal primitives? As illustrated above, we found evidence for both sides of the argument. In the case of code execution, the answer is no, but it is a yes in the case of idling. However, it is important to go beyond the significant correlations as there is an informative signal in the non-significant ones as well. For example, consider idling once again. By itself, this pattern is negatively correlated with the task score (r = -.21) and the correlation is even more negative when idling is accompanied by silence/back channeling and little movement (r = -.35). However, there are many other configurations where idling is weak or negligible predictor of task score. For example, idling occurring in the context of the contributors speaking with some movement is more weakly correlated with task score (r = -.11) and the correlation is essentially null when idling is accompanied with the controller speaking and some movement (r = -.06). Thus, even when they do not improve predictive power, multimodal patterns help contextualize and reveal nuances in the unimodal primitives. This supports the overall idea of multimodal learning analytics in which the additional modalities (speech and body movement in our case) help to understand unclear patterns such as idling. This finding is interesting from two perspectives."</t>
+  </si>
+  <si>
+    <t>CPS study, Minecraft playing via Blockly. Model-free because only stats methods/pattern extraction and no AI/ML model or formal theoretical model. Compared unimodal to multimodal, and made arguments for both given the context.</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>The experiments on authentically collected student dataset showed that it is beneficial to have separate classification pipelines for different learning sections of Instructional and Assessment. For the Instructional section, using only Appearance modality yields an F1-measure of 0.74, compared to fused performance of 0.70. For Assessment, fusing all three modalities (F1-measure of 0.89) provide a prominent improvement over the best performing unimodality (0.81 for Appearance).</t>
+  </si>
+  <si>
+    <t>Mixed findings for uni- versus multi-modal:
+"The experiments on authentically collected student dataset showed that it is beneficial to have separate classification pipelines for different learning sections of Instructional and Assessment. For the Instructional section, using only Appearance modality yields an F1-measure of 0.74, compared to fused performance of 0.70. For Assessment, fusing all three modalities (F1-measure of 0.89) provide a prominent improvement over the best performing unimodality (0.81 for Appearance). Interestingly, although Context-Performance modality performs poorly for the Off-Task class when considered alone, it helps to eliminate false positives (especially for the Off-Task class) when incorporated into the other modalities. In summary, we can say that for Instructional section types, Appearance modality provides acceptable results; whereas for Assessment sections, all available information should be fused to achieve best performance."</t>
+  </si>
+  <si>
+    <t>Math virtual environment with 9th graders for engagement detection. Random Forest model.</t>
+  </si>
+  <si>
+    <t>Undergraduate, Graduate</t>
+  </si>
+  <si>
+    <t>Model Free</t>
+  </si>
+  <si>
+    <t>Overall, our study suggests that coupling style can be operationalised as a multimodal indicator suitable to investigate complex collaboration dynamics in games, thus confirming what has been found in other domains</t>
+  </si>
+  <si>
+    <t>"Firstly, we found that coupling styles can be used to characterise collaboration in a co-located SG. Consistently with previous research (Isenberg et al, 2010; Niu et al, 2018), our results showed that teams displayed both close and loose coupling styles while performing individual actions to accomplish shared goals. Interestingly, we found a positive association between the time spent working closely coupled and the individual interactions with the technology. This suggests that the pursuit of collective goals requires players to continuously alternate and integrate individual planning and action with closely-coupled, likely to verify and synchronise their own actions with others. Secondly, we found that the perceived quality of collaboration does not appear to be an effective indicator of collaboration quality by itself. However, its small association with close-coupling style suggests a conscious, continuous, and proactive approach to collaboration, since players who appreciate the value of collaboration also seem to actively engage in closely-coupled interactions with others. Thirdly, our findings suggest that better-performing teams do work more closely-coupled and alternate their interactions with individual work. This result indicates that freely alternating individual work with closely-coupled interaction is an effective collaboration strategy, and that collaborative SGs should afford this opportunity. Overall, our study suggests that coupling style can be operationalised as a multimodal indicator suitable to investigate complex collaboration dynamics in games, thus confirming what has been found in other domains (Isenberg et al, 2010; Niu et al, 2018)."</t>
+  </si>
+  <si>
+    <t>Blended game environment for sustainable development (collaborative). Only stats methods applied, and no formal model presented or addressed via RQs.</t>
+  </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>"We observed that linguistic features (i.e.n-gram of various size and types in combination with syntactic information), multimodal in-domain corpora and classification procedures resulted in the best performance on an argument structure mining task. Results of the argument quality experiments showed that argument com- prehensibility is affected by the number of referring expressions, information complexity, and presentation fluency. Presence of intensification and segmentation markers, position and movements of hands/ams and certain postures may affect the perception of the clarity, persuasiveness, and credibility of debaters."</t>
+  </si>
+  <si>
+    <t>Real-time and post hoc vitual debate coach. SVM model for classification. Could make argument for blended environment with virtual coach, but I would consider the environment to be in person, as that is where the students interact and debate.</t>
+  </si>
+  <si>
+    <t>Psychomotor</t>
+  </si>
+  <si>
+    <t>Professional Development</t>
+  </si>
+  <si>
+    <t>"...we collected observations that, while cannot be generalised, provide some indication that the feedback of the CPR tutor had a positive influence on the CPR performance on the target classes. To sum up, the architecture used for the CPR Tutor allowed for provision of real-time multimodal feedback (H1) and the generated feedback seem to have a short-term positive influence on the CPR performance on the target classes considered."</t>
+  </si>
+  <si>
+    <t>CPR tutor. Model-based via RNN (LSTM) classification. Environment is "European University Hospital." No mention of undergraduats, and I got the impression this was professional development given the students needed to have recurring CPR qualifications.</t>
+  </si>
+  <si>
+    <t>SEAT had positive impact on student engagement and was also helpful to teachers.</t>
+  </si>
+  <si>
+    <t>Real-time, multimodal Student Engagement Analytics Technology. Model-based via ML models (RF) referenced in previous works.</t>
+  </si>
+  <si>
+    <t>"It revealed an overwhelmingly positive perception of the system especially in the dimensions of perceived usefulness and feedback which were rated as excellent by 65% and 58% of the students respectively. The qualitative analysis helped discover specific issues, on the positive side, students commented on the potential of the system to quickly learn some basic presentation skills: "I would like to see this system used in our Communications class". On the negative side, students commented that they sometimes were aware that they were being recorded and that the environment was too small. Also, some students felt uncomfortable with a pre-recorded audience because it didn’t seem to react to their presentation: "the audience had always the same expressions". Overall, the students agreed that the system was useful and that they learned about their own presentation skills while using it."</t>
+  </si>
+  <si>
+    <t>RAP system evaluation. Blended because interactions with screen crowd and presentation but IRL presenting. Model-based due to AI/ML methods like RF.</t>
+  </si>
+  <si>
+    <t>MIXED</t>
+  </si>
+  <si>
+    <t>"During informed problem solving episodes, we observed that children’s physiological stress, cognitive load, and emotional regu- lation were the highest. When children are presented a problem to solve, they may feel under pressure (external or self-imposed [60]) to answer the question correctly."
+"During our study, children interacted with a MBEG; however, despite the intended “fun factor” that typically accompanies games, the pressure to academically perform (i.e., correctly match a card-box pair) may have elevated children’s stress levels [38, 87]. This may explain why children’s stress levels peaked during episodes of informed problem solving. In a similar vein, increased levels of cognitive load during informed problem solving may be directly linked to the mental effort that children expended as they reasoned through problems [88]."
+"Lastly, emotional regulation relates to children’s HRV [9, 97]. A plausible reason for observing the highest levels of emotional regulation during informed problem solving might be due to the immediate feedback that children received directly after they attempted to make a card-box match. The anticipation of the MBEG assessment/evaluation may have influenced children’s heart rate, causing high levels of variability as children invested themselves in informed problem solving. Thus, in accordance with prior research [32], we hypothesise that the feedback in general, may have triggered cognitive and affective responses which affected learning, particularly during this ongoing tasks (i.e., a collection of questions asked in series)."
+"Contrary to previous research [69, 84], our results did not indicate a connection between guessing behaviour and children’s lack of engagement during their interactions with the MBEG (Figure 6, top right). As such, we propose that during episodes of guessing, children experienced some degree of external and/or self-imposed pressures to determine answers correctly (as during informed problem solving)."</t>
+  </si>
+  <si>
+    <t>Marvy learns. Embodied...child must move physicall to get on-screen "monster" Marvy to place shapes in the right buckets.  No AI/ML model (stats via ANOVA). Lots of references to "groundwork" that directs research, but no formal model.</t>
+  </si>
+  <si>
+    <t>"Our results from this analysis showed how students’ early experiences struggling with a novel concept could significantly affect both their entire learning trajectories within an activity and pre-test–post-test measurements of learning gains related to that concept. It provided evidence of an important “moment” for early instructional intervention.
+The analysis we conducted on the Concentration knowledge component was an example of how a knowledge component-centred analysis can benefit from this multi-step approach as well. Our results led to a modification in the knowledge component assignment to problem steps within a ChemVLab+ activity as well as instructional implications for promoting better learning of a previously hidden conceptual difficulty."</t>
+  </si>
+  <si>
+    <t>Chemistry Virtual Lab. ChemVLab+ tutor. Model-based via regressing post-test scores and calculating probability individual student will get problem correct.</t>
+  </si>
+  <si>
+    <t>K-12, undergraduate</t>
+  </si>
+  <si>
+    <t>"Looking across analyses, there are clear instances where each provided some novel insights. In this sense, the overall algorithm appears to have relevance for studying learning, success and experimental condition; but honing in on these correlations requires different modes of analysis.
+As a whole this article has shown that success, learning and process are not equivalent, though they may occasionally overlap. Thus, when thinking about measuring the effectiveness of a given learning environment it is important to be clear about which metrics one hopes to optimize. At the same time, this article has provided additional evidence that experimental condition can have an impact on learning, success and process. Because of this, one has to be cognizant about how to develop learning and reasoning approaches that allow the environment to realize the desired outcomes."</t>
+  </si>
+  <si>
+    <t>Dyads working with materials like paper on engineering task. High school and undergraduate students. No AI/ML supervised model, no formal theorhetical model. Does clustering count as model?</t>
+  </si>
+  <si>
+    <t>"In line with previous empirical findings, we acknowledge that persuasive speech is rather difficult to characterize. Neverthe- less, based on theoretical and empirical frameworks set up by Grice (1975), Gussenhoven (2002) and Hirschberg (2002), we were able to define a set of criteria which help us to explain observed regularities and define rules, strategies and constraints for the generation, assessment and correction of trainees’ debate performance. Experiments of different types supported fairly reliable identification of markers from multimodal data, and linking these to assessments of debater confidence level and intensification behaviour."</t>
+  </si>
+  <si>
+    <t>Designing a virtual debate coach. Model-based via SVM classification and also three different theorhetical frameworks.</t>
+  </si>
+  <si>
+    <t>Virutal</t>
+  </si>
+  <si>
+    <t>mutli-person</t>
+  </si>
+  <si>
+    <t>"Overall, students were more likely to share ideas and ask questions, and they tended to use quick- response strategies while multimodal composing."
+"Students’ interview responses also suggested that providing short responses was a typical strategy during multimodal composing."
+"When examining interactions across sessions, the group was more engaged in discussions at the beginning and the end of the project while fewer interactions occurred during the middle of their composing process."
+"Giving commands occurred much less frequently than other interaction types (Figure 3)."
+"Students discussed more often about comics that combined visuals and text than other modal elements."
+"Making learning visible in different modes was critical to foster peer interaction (Jahnke, Norqvist, &amp;
+Olsson, 2013)."
+"Results showed that there were interactional differences based on different modes."
+"While comparing discussions on static visual modes, namely images and multimodal comics, we found that images involved more self-oriented and less group-oriented contributions."
+"Discussions on animations included more elaborated feedback."
+"Written narrative provided the least opportunity for group-oriented contributions."</t>
+  </si>
+  <si>
+    <t>Focus on how different modes influence student interactions over
+time during science multimodal composing. Provides model via theoretical framework.</t>
+  </si>
+  <si>
+    <t>Embodied predator-prey ecosystem environment. No AI/ML or formal theoretical model. Does HMM count as model?
+"The aim of this paper is to show how multimodal learning analytics (MMLA) can help understand how elementary students explore the concept of feedback loops while controlling an embodied simulation of a predator-prey ecosystem using hand movements as an interface with the computer simulation."</t>
+  </si>
+  <si>
+    <t>insturctional</t>
+  </si>
+  <si>
+    <t>"The models from M2 to M8 significantly outperformed M1 (see Figure 3), with M1 exhibiting a significantly lower adjusted
+R2 value of 0.42 (std.dev. = 0.116)."
+i.e., multimodal much better than logs alone for predicting debugging performance. Best model had every single modality.
+"Using machine learning, we looked at the overall patterns in the data and performed feature importance among the 72 measures extracted from the multimodal data. Findings like ours combined with pedagogical intent from educators and theories from the LS, can advance the synergy between LA and LD by translating results in applicable design guidelines that can lead to improvements in the design of learning activities, instructional methods for teaching particular skills, and even the overall course (re)design. The complexity of the MMLA approach is congruous with learning theories because it can be used to understand how effectively students use the opportunities for learning as given in the LD. Such understanding promises to support versatile improvements in the LD in digital environments, from setting the right feedback loop (e.g., explaining misconceptions vs. challenging the student), to the design of personalized interventions, and modelling effective learning strategies considering skills and knowledge proficiency."
+"The findings emphasize the need for learning analytics that are consequential for learning, rather than easy and convenient to collect."</t>
+  </si>
+  <si>
+    <t>Java debugging env looking at just logs as a baseline then compared to multimodal. RF model-based.</t>
+  </si>
+  <si>
+    <t>"This study demonstrated a consolidated analysis of multimodal data collected during an adaptive self-assessment activity, utilizing fsQCA for deeper understanding engagement in this setting. What this study adds to engagement literature is that when the learning tasks facilitate one’s own learning needs (motivation), it is likely that one will be deeper and more substantially involved with those tasks, yet the thorough analysis showcased that multimodal data can provide more than one engagement patterns to facilitate this objective."</t>
+  </si>
+  <si>
+    <t>Fuzzy set qualitative comparative analysis (fsQCA) approach to shed light to learners’ engagement patterns. Model free because no formal theoretical model or AI/ML model.</t>
+  </si>
+  <si>
+    <t>"In this research study, we presented that where the students are looking, the distance between them, the motion of their hands our key features for a learning analytics system to be effectively used to identify collaboration in small groups of Engineering students."</t>
+  </si>
+  <si>
+    <t>Determine best MMLA features for CPS. Blened Arduino+IDE. Model-based (regression).</t>
+  </si>
+  <si>
+    <t>STEM, Humanities</t>
+  </si>
+  <si>
     <t>STEM, humanities</t>
   </si>
   <si>
-    <t>multi-person</t>
-  </si>
-  <si>
-    <t>instructional</t>
-  </si>
-  <si>
-    <t>K-12</t>
-  </si>
-  <si>
-    <t>model-free</t>
+    <t>"In contrast to the previous works that used mainly handcrafted local (i.e., local binary patterns, Gabor filters) and precomputed features such as head pose or estimated facial action units, we showed that engagement as a 3-class classification problem can be predicted in the classroom. We gathered a large-scale classroom observation dataset and collected the observer ratings of student engagement for Grades 8 and 12 (N=15). In contrast to the limited training and testing protocols in the literature, our study is the first to validate the use of automated engagement analysis in the classroom.
+Our work proves that even a small amount of person-specific data could considerably enhance the performance of engagement classifiers. In comparison to the person-independent settings of many machine learning and computer vision tasks, personalization in engagement analysis significantly impacts performance. We find this to be the case because of personal differences in visible behaviors during levels of low and high engagement. Furthermore, engagement can even reveal variation in time (for instance, the indicators of engagement are not the same in different classes, i.e., math and history)."</t>
+  </si>
+  <si>
+    <t>AV facial detection. Model-based: RF, SVM, MLP, LSTM. Classroon setting (instructional, multi-person, physical). Many subjects stemming across STEM and humanities.</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
+  </si>
+  <si>
+    <t>"In a 26-participant user study, we found that it is feasible to detect 6 types of emotion during learning via collected PPG signals and facial expressions and these modalities are complement with each other."
+"AttentiveLearner2 achieved high performance as all our models outperformed the baseline. Moreover, we found PPG signals and facial expressions are complement each other. If FEA features can win in 3 emotions (Confusion, Happiness, and Self-efficacy), PPG features are the best solution for Curiosity, and feature fusion can improve detection performance for Boredom and Frustration."
+"In a 26-participant user study, we found that by taking advantages from two modalities, AttentiveLearner2 achieved higher detection accuracy than models using only one modality across 6 different emotions. More importantly, these results were achieved on unmodified smartphones which supports the scalable deployment of AttentiveLearner2"</t>
+  </si>
+  <si>
+    <t>AttentiveLearner2 implicitly infers learners’ affective and cognitive states during learning by analyzing learners’ PPG signals and facial expressions to improve mobile MOOC learning. 
+Model-based via multimodal emotion detection, but it's a short paper and the exact classification model is not provided.</t>
+  </si>
+  <si>
+    <t>K12 with Parents</t>
+  </si>
+  <si>
+    <t>"Firstly, we note a clear causal pathway between the group of variables describing parents’ support and another group representing the child’s cognitive-affective experience."
+"Secondly, we note the causal pathway from Profile to Affect and, indirectly, to Support."</t>
+  </si>
+  <si>
+    <t>Model-based via presented framework.
+"We explore an analytical framework that is explainable and amenable to incorporating domain knowledge. The proposed framework combines statistical approaches in Sparse Multiple Canonical Correlation, causal discovery, and inference methods for observations. We demonstrate this framework using a multimodal one-on-one math problem-solving coaching dataset collected in naturalistic home environments involving parents and young children."</t>
   </si>
   <si>
     <t>2 environments: blended arduino and blended pen/paper. 
 STEM for CS, humanities for design.</t>
-  </si>
-  <si>
-    <t>STEM</t>
   </si>
   <si>
     <t>"Our combined multi-modal learning analytics and interaction analysis methodology enabled us to identify two multi-modal profles of learners who have learning gains and one multi-modal profle of learners who do not have learning gains."
@@ -2202,16 +2463,7 @@
 subject is STEM because goal of env is to teach about minimum-spanning-tree.</t>
   </si>
   <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
     <t>undisclosed</t>
-  </si>
-  <si>
-    <t>model-based</t>
   </si>
   <si>
     <t>"the architecture used for the CPR Tutor allowed for the provision of real-time multimodal feedback, and the generated feedback seemed to have a short-term positive influence on the considered CPR performance indicators."
@@ -2235,9 +2487,6 @@
     <t>Marvy learns (geometry). RF for classification (model-based). Exploratory Factor Analysis (EFA) for statistical analysis (model-free)</t>
   </si>
   <si>
-    <t>informal</t>
-  </si>
-  <si>
     <t>professional</t>
   </si>
   <si>
@@ -2246,9 +2495,6 @@
 sibility of extracting behavioral indicators and traces using MMLA to give insights onteam collaboration."</t>
   </si>
   <si>
-    <t>undergraduate</t>
-  </si>
-  <si>
     <t>Arduino + browser IDE, so blended engineering. DNN + regression. Also tested SVM, NB, LR.</t>
   </si>
   <si>
@@ -2276,7 +2522,7 @@
     <t>virtual, physical</t>
   </si>
   <si>
-    <t>individual, multi-student</t>
+    <t>individual, multi-person</t>
   </si>
   <si>
     <t>Ashwin paper! Automated inquiry-based instruction based on affective state. Two environments: classroom (multi-student) and e-learning (single-student). Classification via Inception and YOLO.</t>
@@ -2292,7 +2538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2311,6 +2557,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2376,7 +2628,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2439,16 +2691,41 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -29679,8 +29956,8 @@
     <col customWidth="1" min="15" max="15" width="24.71"/>
     <col customWidth="1" min="16" max="16" width="20.57"/>
     <col customWidth="1" min="17" max="17" width="18.43"/>
-    <col customWidth="1" min="18" max="18" width="25.14"/>
-    <col customWidth="1" min="19" max="19" width="17.57"/>
+    <col customWidth="1" min="18" max="18" width="12.71"/>
+    <col customWidth="1" min="19" max="19" width="30.14"/>
     <col customWidth="1" min="20" max="20" width="23.57"/>
     <col customWidth="1" min="21" max="21" width="13.43"/>
     <col customWidth="1" min="22" max="22" width="60.14"/>
@@ -29838,13 +30115,27 @@
       <c r="L3" s="8">
         <v>3.0</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="T3" s="8" t="s">
         <v>39</v>
       </c>
@@ -29940,13 +30231,27 @@
       <c r="L5" s="8">
         <v>4.0</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="T5" s="8" t="s">
         <v>39</v>
       </c>
@@ -30042,13 +30347,27 @@
       <c r="L7" s="8">
         <v>5.0</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="T7" s="8" t="s">
         <v>39</v>
       </c>
@@ -30144,13 +30463,27 @@
       <c r="L9" s="8">
         <v>6.0</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>686</v>
+      </c>
       <c r="T9" s="8" t="s">
         <v>39</v>
       </c>
@@ -30246,13 +30579,27 @@
       <c r="L11" s="8">
         <v>7.0</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="T11" s="8" t="s">
         <v>39</v>
       </c>
@@ -30348,13 +30695,27 @@
       <c r="L13" s="8">
         <v>11.0</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="M13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="T13" s="8" t="s">
         <v>39</v>
       </c>
@@ -30450,13 +30811,27 @@
       <c r="L15" s="8">
         <v>12.0</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="M15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="T15" s="8" t="s">
         <v>39</v>
       </c>
@@ -30552,13 +30927,27 @@
       <c r="L17" s="8">
         <v>13.0</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="T17" s="8" t="s">
         <v>39</v>
       </c>
@@ -30654,13 +31043,27 @@
       <c r="L19" s="8">
         <v>14.0</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="T19" s="8" t="s">
         <v>39</v>
       </c>
@@ -30756,13 +31159,27 @@
       <c r="L21" s="8">
         <v>15.0</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>691</v>
+      </c>
       <c r="T21" s="8" t="s">
         <v>39</v>
       </c>
@@ -30858,13 +31275,27 @@
       <c r="L23" s="8">
         <v>48.0</v>
       </c>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="T23" s="8" t="s">
         <v>39</v>
       </c>
@@ -30960,13 +31391,27 @@
       <c r="L25" s="8">
         <v>49.0</v>
       </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+      <c r="M25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>144</v>
+      </c>
       <c r="T25" s="8" t="s">
         <v>39</v>
       </c>
@@ -31062,13 +31507,27 @@
       <c r="L27" s="8">
         <v>50.0</v>
       </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
+      <c r="M27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="T27" s="8" t="s">
         <v>39</v>
       </c>
@@ -31164,13 +31623,27 @@
       <c r="L29" s="8">
         <v>51.0</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
+      <c r="M29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="T29" s="8" t="s">
         <v>39</v>
       </c>
@@ -31266,13 +31739,27 @@
       <c r="L31" s="8">
         <v>52.0</v>
       </c>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="M31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="T31" s="8" t="s">
         <v>39</v>
       </c>
@@ -31368,13 +31855,27 @@
       <c r="L33" s="8">
         <v>53.0</v>
       </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
+      <c r="M33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="T33" s="8" t="s">
         <v>39</v>
       </c>
@@ -31470,13 +31971,27 @@
       <c r="L35" s="8">
         <v>54.0</v>
       </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
+      <c r="M35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>187</v>
+      </c>
       <c r="T35" s="8" t="s">
         <v>39</v>
       </c>
@@ -31572,13 +32087,27 @@
       <c r="L37" s="8">
         <v>55.0</v>
       </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
+      <c r="M37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="T37" s="8" t="s">
         <v>39</v>
       </c>
@@ -31587,55 +32116,64 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>1.847468084E9</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>2019.0</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="7">
         <v>55.0</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="8" t="s">
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U38" s="8">
+      <c r="U38" s="7">
         <v>2.0</v>
       </c>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="8">
@@ -31674,18 +32212,35 @@
       <c r="L39" s="8">
         <v>56.0</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="M39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="T39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="U39" s="8">
         <v>1.0</v>
+      </c>
+      <c r="V39" s="13" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -31776,12 +32331,24 @@
       <c r="L41" s="8">
         <v>57.0</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="M41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S41" s="10"/>
       <c r="T41" s="8" t="s">
         <v>40</v>
@@ -31790,7 +32357,7 @@
         <v>1.0</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>215</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -31881,18 +32448,33 @@
       <c r="L43" s="8">
         <v>58.0</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
+      <c r="M43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="S43" s="10"/>
       <c r="T43" s="8" t="s">
         <v>40</v>
       </c>
       <c r="U43" s="8">
         <v>1.0</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -31983,18 +32565,33 @@
       <c r="L45" s="8">
         <v>59.0</v>
       </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
+      <c r="M45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="S45" s="10"/>
       <c r="T45" s="8" t="s">
         <v>40</v>
       </c>
       <c r="U45" s="8">
         <v>1.0</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -32085,18 +32682,33 @@
       <c r="L47" s="8">
         <v>60.0</v>
       </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
+      <c r="M47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S47" s="10"/>
       <c r="T47" s="8" t="s">
         <v>40</v>
       </c>
       <c r="U47" s="8">
         <v>1.0</v>
+      </c>
+      <c r="V47" s="13" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -32187,18 +32799,33 @@
       <c r="L49" s="8">
         <v>61.0</v>
       </c>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="M49" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S49" s="10"/>
       <c r="T49" s="8" t="s">
         <v>40</v>
       </c>
       <c r="U49" s="8">
         <v>1.0</v>
+      </c>
+      <c r="V49" s="13" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -32289,18 +32916,33 @@
       <c r="L51" s="8">
         <v>62.0</v>
       </c>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
+      <c r="M51" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S51" s="10"/>
       <c r="T51" s="8" t="s">
         <v>40</v>
       </c>
       <c r="U51" s="8">
         <v>1.0</v>
+      </c>
+      <c r="V51" s="13" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -32391,12 +33033,24 @@
       <c r="L53" s="8">
         <v>63.0</v>
       </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
+      <c r="M53" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R53" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S53" s="10"/>
       <c r="T53" s="8" t="s">
         <v>40</v>
@@ -32493,12 +33147,24 @@
       <c r="L55" s="8">
         <v>64.0</v>
       </c>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="M55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S55" s="10"/>
       <c r="T55" s="8" t="s">
         <v>40</v>
@@ -32595,12 +33261,24 @@
       <c r="L57" s="8">
         <v>65.0</v>
       </c>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
+      <c r="M57" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S57" s="10"/>
       <c r="T57" s="8" t="s">
         <v>40</v>
@@ -32697,12 +33375,24 @@
       <c r="L59" s="8">
         <v>66.0</v>
       </c>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
+      <c r="M59" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="R59" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="S59" s="10"/>
       <c r="T59" s="8" t="s">
         <v>40</v>
@@ -32799,12 +33489,24 @@
       <c r="L61" s="8">
         <v>67.0</v>
       </c>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
+      <c r="M61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R61" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S61" s="10"/>
       <c r="T61" s="8" t="s">
         <v>40</v>
@@ -32901,12 +33603,24 @@
       <c r="L63" s="8">
         <v>68.0</v>
       </c>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
+      <c r="M63" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="R63" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S63" s="10"/>
       <c r="T63" s="8" t="s">
         <v>40</v>
@@ -33003,12 +33717,24 @@
       <c r="L65" s="8">
         <v>69.0</v>
       </c>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
+      <c r="M65" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="R65" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S65" s="10"/>
       <c r="T65" s="8" t="s">
         <v>40</v>
@@ -33105,12 +33831,24 @@
       <c r="L67" s="8">
         <v>70.0</v>
       </c>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
+      <c r="M67" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R67" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="S67" s="10"/>
       <c r="T67" s="8" t="s">
         <v>40</v>
@@ -33207,12 +33945,24 @@
       <c r="L69" s="8">
         <v>71.0</v>
       </c>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
+      <c r="M69" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="R69" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S69" s="10"/>
       <c r="T69" s="8" t="s">
         <v>40</v>
@@ -33309,12 +34059,24 @@
       <c r="L71" s="8">
         <v>72.0</v>
       </c>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
+      <c r="M71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R71" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="S71" s="10"/>
       <c r="T71" s="8" t="s">
         <v>40</v>
@@ -33411,12 +34173,24 @@
       <c r="L73" s="8">
         <v>73.0</v>
       </c>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
+      <c r="M73" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="P73" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="R73" s="10" t="s">
+        <v>680</v>
+      </c>
       <c r="S73" s="10"/>
       <c r="T73" s="8" t="s">
         <v>40</v>
@@ -33476,2019 +34250,2931 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="8">
+    <row r="75">
+      <c r="A75" s="25">
         <v>1.770989706E9</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="25">
         <v>2020.0</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J75" s="8" t="s">
+      <c r="J75" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L75" s="25">
         <v>1.0</v>
       </c>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="8" t="s">
+      <c r="M75" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N75" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O75" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="P75" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q75" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="R75" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S75" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="T75" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U75" s="8">
+      <c r="U75" s="25">
         <v>1.0</v>
       </c>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="25"/>
+      <c r="AD75" s="25"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="8">
+      <c r="A76" s="27">
         <v>1.770989706E9</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="27">
         <v>2020.0</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="8" t="s">
+      <c r="K76" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="27">
         <v>1.0</v>
       </c>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="8" t="s">
+      <c r="M76" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N76" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O76" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P76" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q76" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="R76" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="S76" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="T76" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U76" s="8">
+      <c r="U76" s="27">
         <v>2.0</v>
       </c>
+      <c r="V76" s="28" t="s">
+        <v>707</v>
+      </c>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="8">
+      <c r="A77" s="25">
         <v>2.456887548E9</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="25">
         <v>2017.0</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="25">
         <v>2.0</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="8" t="s">
+      <c r="M77" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N77" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O77" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P77" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q77" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R77" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S77" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="T77" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U77" s="8">
+      <c r="U77" s="25">
         <v>1.0</v>
       </c>
+      <c r="V77" s="25"/>
+      <c r="W77" s="25"/>
+      <c r="X77" s="25"/>
+      <c r="Y77" s="25"/>
+      <c r="Z77" s="25"/>
+      <c r="AA77" s="25"/>
+      <c r="AB77" s="25"/>
+      <c r="AC77" s="25"/>
+      <c r="AD77" s="25"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="8">
+      <c r="A78" s="27">
         <v>2.456887548E9</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="27">
         <v>2017.0</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="27">
         <v>2.0</v>
       </c>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="8" t="s">
+      <c r="M78" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N78" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O78" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P78" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q78" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R78" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S78" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="T78" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U78" s="8">
+      <c r="U78" s="27">
         <v>2.0</v>
       </c>
+      <c r="V78" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="8">
+      <c r="A79" s="25">
         <v>5.18268671E8</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="25">
         <v>2021.0</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="25">
         <v>8.0</v>
       </c>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="8" t="s">
+      <c r="M79" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="N79" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O79" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="P79" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q79" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="R79" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="S79" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="T79" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U79" s="8">
+      <c r="U79" s="25">
         <v>1.0</v>
       </c>
+      <c r="V79" s="25"/>
+      <c r="W79" s="25"/>
+      <c r="X79" s="25"/>
+      <c r="Y79" s="25"/>
+      <c r="Z79" s="25"/>
+      <c r="AA79" s="25"/>
+      <c r="AB79" s="25"/>
+      <c r="AC79" s="25"/>
+      <c r="AD79" s="25"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="8">
+      <c r="A80" s="27">
         <v>5.18268671E8</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="27">
         <v>2021.0</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="L80" s="8">
+      <c r="L80" s="27">
         <v>8.0</v>
       </c>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="8" t="s">
+      <c r="M80" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N80" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O80" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P80" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q80" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="R80" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="S80" s="28" t="s">
+        <v>715</v>
+      </c>
+      <c r="T80" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U80" s="8">
+      <c r="U80" s="27">
         <v>2.0</v>
       </c>
+      <c r="V80" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="8">
+      <c r="A81" s="25">
         <v>9.57160695E8</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="25">
         <v>2017.0</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81" s="25">
         <v>9.0</v>
       </c>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="8" t="s">
+      <c r="M81" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N81" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="O81" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="P81" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q81" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R81" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="S81" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="T81" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U81" s="8">
+      <c r="U81" s="25">
         <v>1.0</v>
       </c>
+      <c r="V81" s="25"/>
+      <c r="W81" s="25"/>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
+      <c r="AA81" s="25"/>
+      <c r="AB81" s="25"/>
+      <c r="AC81" s="25"/>
+      <c r="AD81" s="25"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="8">
+      <c r="A82" s="27">
         <v>9.57160695E8</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="27">
         <v>2017.0</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H82" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="L82" s="8">
+      <c r="L82" s="27">
         <v>9.0</v>
       </c>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="8" t="s">
+      <c r="M82" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N82" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="O82" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P82" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q82" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R82" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S82" s="28" t="s">
+        <v>718</v>
+      </c>
+      <c r="T82" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U82" s="8">
+      <c r="U82" s="27">
         <v>2.0</v>
       </c>
+      <c r="V82" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="8">
+      <c r="A83" s="25">
         <v>3.00954867E9</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="25">
         <v>2020.0</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H83" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L83" s="25">
         <v>10.0</v>
       </c>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="8" t="s">
+      <c r="M83" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N83" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="O83" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P83" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q83" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="R83" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S83" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="T83" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U83" s="8">
+      <c r="U83" s="25">
         <v>1.0</v>
       </c>
+      <c r="V83" s="25"/>
+      <c r="W83" s="25"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="25"/>
+      <c r="Z83" s="25"/>
+      <c r="AA83" s="25"/>
+      <c r="AB83" s="25"/>
+      <c r="AC83" s="25"/>
+      <c r="AD83" s="25"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="8">
+      <c r="A84" s="27">
         <v>3.00954867E9</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="27">
         <v>2020.0</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="L84" s="8">
+      <c r="L84" s="27">
         <v>10.0</v>
       </c>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="8" t="s">
+      <c r="M84" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N84" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="O84" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P84" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q84" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="R84" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S84" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="T84" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U84" s="8">
+      <c r="U84" s="27">
         <v>2.0</v>
       </c>
+      <c r="V84" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="W84" s="27"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="8">
+      <c r="A85" s="25">
         <v>3.448122334E9</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="25">
         <v>2019.0</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L85" s="25">
         <v>16.0</v>
       </c>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="8" t="s">
+      <c r="M85" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N85" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O85" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P85" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q85" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R85" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S85" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="T85" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U85" s="8">
+      <c r="U85" s="25">
         <v>1.0</v>
       </c>
+      <c r="V85" s="25"/>
+      <c r="W85" s="25"/>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="25"/>
+      <c r="AB85" s="25"/>
+      <c r="AC85" s="25"/>
+      <c r="AD85" s="25"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="8">
+      <c r="A86" s="27">
         <v>3.448122334E9</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="27">
         <v>2019.0</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="L86" s="8">
+      <c r="L86" s="27">
         <v>16.0</v>
       </c>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="8" t="s">
+      <c r="M86" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N86" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O86" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P86" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q86" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R86" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S86" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="T86" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U86" s="8">
+      <c r="U86" s="27">
         <v>2.0</v>
       </c>
+      <c r="V86" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="8">
+      <c r="A87" s="25">
         <v>2.497456347E9</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="25">
         <v>2018.0</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L87" s="25">
         <v>17.0</v>
       </c>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="8" t="s">
+      <c r="M87" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="N87" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="O87" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P87" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q87" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="R87" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S87" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="T87" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U87" s="8">
+      <c r="U87" s="25">
         <v>1.0</v>
       </c>
+      <c r="V87" s="25"/>
+      <c r="W87" s="25"/>
+      <c r="X87" s="25"/>
+      <c r="Y87" s="25"/>
+      <c r="Z87" s="25"/>
+      <c r="AA87" s="25"/>
+      <c r="AB87" s="25"/>
+      <c r="AC87" s="25"/>
+      <c r="AD87" s="25"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="8">
+      <c r="A88" s="27">
         <v>2.497456347E9</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="27">
         <v>2018.0</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H88" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L88" s="8">
+      <c r="L88" s="27">
         <v>17.0</v>
       </c>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="8" t="s">
+      <c r="M88" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N88" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="O88" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P88" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q88" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="R88" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S88" s="28" t="s">
+        <v>726</v>
+      </c>
+      <c r="T88" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U88" s="8">
+      <c r="U88" s="27">
         <v>2.0</v>
       </c>
+      <c r="V88" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="8">
+      <c r="A89" s="25">
         <v>3.660066725E9</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="25">
         <v>2021.0</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K89" s="8" t="s">
+      <c r="K89" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="L89" s="8">
+      <c r="L89" s="25">
         <v>18.0</v>
       </c>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="8" t="s">
+      <c r="M89" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="N89" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O89" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="P89" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q89" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R89" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="S89" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="T89" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U89" s="8">
+      <c r="U89" s="25">
         <v>1.0</v>
       </c>
+      <c r="V89" s="25"/>
+      <c r="W89" s="25"/>
+      <c r="X89" s="25"/>
+      <c r="Y89" s="25"/>
+      <c r="Z89" s="25"/>
+      <c r="AA89" s="25"/>
+      <c r="AB89" s="25"/>
+      <c r="AC89" s="25"/>
+      <c r="AD89" s="25"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="8">
+      <c r="A90" s="27">
         <v>3.660066725E9</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="27">
         <v>2021.0</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="L90" s="8">
+      <c r="L90" s="27">
         <v>18.0</v>
       </c>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="8" t="s">
+      <c r="M90" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N90" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O90" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P90" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q90" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R90" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="S90" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="T90" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U90" s="8">
+      <c r="U90" s="27">
         <v>2.0</v>
       </c>
+      <c r="V90" s="28" t="s">
+        <v>730</v>
+      </c>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="8">
+      <c r="A91" s="25">
         <v>3.783339081E9</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="25">
         <v>2018.0</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="L91" s="8">
+      <c r="L91" s="25">
         <v>19.0</v>
       </c>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="8" t="s">
+      <c r="M91" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N91" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O91" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P91" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q91" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R91" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="S91" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="T91" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U91" s="8">
+      <c r="U91" s="25">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="8">
+      <c r="V91" s="25"/>
+      <c r="W91" s="25"/>
+      <c r="X91" s="25"/>
+      <c r="Y91" s="25"/>
+      <c r="Z91" s="25"/>
+      <c r="AA91" s="25"/>
+      <c r="AB91" s="25"/>
+      <c r="AC91" s="25"/>
+      <c r="AD91" s="25"/>
+    </row>
+    <row r="92" ht="42.0" customHeight="1">
+      <c r="A92" s="27">
         <v>3.783339081E9</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="27">
         <v>2018.0</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="K92" s="8" t="s">
+      <c r="K92" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="L92" s="8">
+      <c r="L92" s="27">
         <v>19.0</v>
       </c>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="8" t="s">
+      <c r="M92" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N92" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O92" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P92" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q92" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R92" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S92" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="T92" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U92" s="8">
+      <c r="U92" s="27">
         <v>2.0</v>
       </c>
+      <c r="V92" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="W92" s="27"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="8">
+      <c r="A93" s="25">
         <v>3.095923626E9</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="25">
         <v>2017.0</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H93" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="J93" s="8" t="s">
+      <c r="J93" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="L93" s="8">
+      <c r="L93" s="25">
         <v>20.0</v>
       </c>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="8" t="s">
+      <c r="M93" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N93" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O93" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="P93" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q93" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R93" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S93" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="T93" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U93" s="8">
+      <c r="U93" s="25">
         <v>1.0</v>
       </c>
+      <c r="V93" s="25"/>
+      <c r="W93" s="25"/>
+      <c r="X93" s="25"/>
+      <c r="Y93" s="25"/>
+      <c r="Z93" s="25"/>
+      <c r="AA93" s="25"/>
+      <c r="AB93" s="25"/>
+      <c r="AC93" s="25"/>
+      <c r="AD93" s="25"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="8">
+      <c r="A94" s="27">
         <v>3.095923626E9</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="27">
         <v>2017.0</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="H94" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="J94" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="K94" s="8" t="s">
+      <c r="K94" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="L94" s="8">
+      <c r="L94" s="27">
         <v>20.0</v>
       </c>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="11"/>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="8" t="s">
+      <c r="M94" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N94" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O94" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P94" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q94" s="28" t="s">
+        <v>733</v>
+      </c>
+      <c r="R94" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="S94" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="T94" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U94" s="8">
+      <c r="U94" s="27">
         <v>2.0</v>
       </c>
+      <c r="V94" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="8">
+      <c r="A95" s="25">
         <v>8.5990093E7</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="25">
         <v>2017.0</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="H95" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="K95" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="L95" s="8">
+      <c r="L95" s="25">
         <v>21.0</v>
       </c>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
-      <c r="S95" s="15"/>
-      <c r="T95" s="8" t="s">
+      <c r="M95" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N95" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="O95" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="P95" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q95" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R95" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="S95" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="T95" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U95" s="8">
+      <c r="U95" s="25">
         <v>1.0</v>
       </c>
+      <c r="V95" s="25"/>
+      <c r="W95" s="25"/>
+      <c r="X95" s="25"/>
+      <c r="Y95" s="25"/>
+      <c r="Z95" s="25"/>
+      <c r="AA95" s="25"/>
+      <c r="AB95" s="25"/>
+      <c r="AC95" s="25"/>
+      <c r="AD95" s="25"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="8">
+      <c r="A96" s="27">
         <v>8.5990093E7</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="27">
         <v>2017.0</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="L96" s="8">
+      <c r="L96" s="27">
         <v>21.0</v>
       </c>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="8" t="s">
+      <c r="M96" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N96" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="O96" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P96" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q96" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R96" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S96" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="T96" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U96" s="8">
+      <c r="U96" s="27">
         <v>2.0</v>
       </c>
+      <c r="V96" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="8">
+      <c r="A97" s="25">
         <v>8.6191824E7</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="25">
         <v>2019.0</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="L97" s="8">
+      <c r="L97" s="25">
         <v>22.0</v>
       </c>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="15"/>
-      <c r="S97" s="15"/>
-      <c r="T97" s="8" t="s">
+      <c r="M97" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="N97" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O97" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="P97" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q97" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R97" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S97" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="T97" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U97" s="8">
+      <c r="U97" s="25">
         <v>1.0</v>
       </c>
+      <c r="V97" s="25"/>
+      <c r="W97" s="25"/>
+      <c r="X97" s="25"/>
+      <c r="Y97" s="25"/>
+      <c r="Z97" s="25"/>
+      <c r="AA97" s="25"/>
+      <c r="AB97" s="25"/>
+      <c r="AC97" s="25"/>
+      <c r="AD97" s="25"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="8">
+      <c r="A98" s="27">
         <v>8.6191824E7</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="27">
         <v>2019.0</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="K98" s="8" t="s">
+      <c r="K98" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="L98" s="8">
+      <c r="L98" s="27">
         <v>22.0</v>
       </c>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="11"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="8" t="s">
+      <c r="M98" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N98" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O98" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P98" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q98" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R98" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S98" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="T98" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U98" s="8">
+      <c r="U98" s="27">
         <v>2.0</v>
       </c>
+      <c r="V98" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="W98" s="27"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="8">
+      <c r="A99" s="25">
         <v>8.18492192E8</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="25">
         <v>2017.0</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="L99" s="8">
+      <c r="L99" s="25">
         <v>23.0</v>
       </c>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
-      <c r="T99" s="8" t="s">
+      <c r="M99" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="N99" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O99" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P99" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q99" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R99" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="S99" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="T99" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U99" s="8">
+      <c r="U99" s="25">
         <v>1.0</v>
       </c>
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
+      <c r="X99" s="25"/>
+      <c r="Y99" s="25"/>
+      <c r="Z99" s="25"/>
+      <c r="AA99" s="25"/>
+      <c r="AB99" s="25"/>
+      <c r="AC99" s="25"/>
+      <c r="AD99" s="25"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="8">
+      <c r="A100" s="27">
         <v>8.18492192E8</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="27">
         <v>2017.0</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="H100" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="I100" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K100" s="8" t="s">
+      <c r="K100" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L100" s="8">
+      <c r="L100" s="27">
         <v>23.0</v>
       </c>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="8" t="s">
+      <c r="M100" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N100" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O100" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P100" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q100" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R100" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="S100" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="T100" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U100" s="8">
+      <c r="U100" s="27">
         <v>2.0</v>
       </c>
+      <c r="V100" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="W100" s="27"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="8">
+      <c r="A101" s="25">
         <v>1.47203129E8</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="25">
         <v>2020.0</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="H101" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="L101" s="8">
+      <c r="L101" s="25">
         <v>24.0</v>
       </c>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="8" t="s">
+      <c r="M101" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N101" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O101" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P101" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q101" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="R101" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S101" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="T101" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U101" s="8">
+      <c r="U101" s="25">
         <v>1.0</v>
       </c>
+      <c r="V101" s="25"/>
+      <c r="W101" s="25"/>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="25"/>
+      <c r="Z101" s="25"/>
+      <c r="AA101" s="25"/>
+      <c r="AB101" s="25"/>
+      <c r="AC101" s="25"/>
+      <c r="AD101" s="25"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="8">
+      <c r="A102" s="27">
         <v>1.47203129E8</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="27">
         <v>2020.0</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I102" s="8" t="s">
+      <c r="I102" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="L102" s="8">
+      <c r="L102" s="27">
         <v>24.0</v>
       </c>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="8" t="s">
+      <c r="M102" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N102" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O102" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P102" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q102" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="R102" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S102" s="28" t="s">
+        <v>744</v>
+      </c>
+      <c r="T102" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U102" s="8">
+      <c r="U102" s="27">
         <v>2.0</v>
       </c>
+      <c r="V102" s="28" t="s">
+        <v>745</v>
+      </c>
+      <c r="W102" s="27"/>
+      <c r="X102" s="27"/>
+      <c r="Y102" s="27"/>
+      <c r="Z102" s="27"/>
+      <c r="AA102" s="27"/>
+      <c r="AB102" s="27"/>
+      <c r="AC102" s="27"/>
+      <c r="AD102" s="27"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="8">
+      <c r="A103" s="25">
         <v>1.23412197E8</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="25">
         <v>2020.0</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H103" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I103" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="L103" s="8">
+      <c r="L103" s="25">
         <v>25.0</v>
       </c>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
-      <c r="T103" s="8" t="s">
+      <c r="M103" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N103" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O103" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P103" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q103" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="R103" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S103" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="T103" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U103" s="8">
+      <c r="U103" s="25">
         <v>1.0</v>
       </c>
+      <c r="V103" s="25"/>
+      <c r="W103" s="25"/>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="25"/>
+      <c r="AA103" s="25"/>
+      <c r="AB103" s="25"/>
+      <c r="AC103" s="25"/>
+      <c r="AD103" s="25"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="8">
+      <c r="A104" s="27">
         <v>1.23412197E8</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="27">
         <v>2020.0</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H104" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="I104" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J104" s="8" t="s">
+      <c r="J104" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="K104" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="L104" s="8">
+      <c r="L104" s="27">
         <v>25.0</v>
       </c>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="8" t="s">
+      <c r="M104" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N104" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O104" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P104" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q104" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="R104" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="S104" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="T104" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U104" s="8">
+      <c r="U104" s="27">
         <v>2.0</v>
       </c>
+      <c r="V104" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="W104" s="27"/>
+      <c r="X104" s="27"/>
+      <c r="Y104" s="27"/>
+      <c r="Z104" s="27"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="27"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="8">
+      <c r="A105" s="25">
         <v>1.118315889E9</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="25">
         <v>2017.0</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I105" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="L105" s="8">
+      <c r="L105" s="25">
         <v>26.0</v>
       </c>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="8" t="s">
+      <c r="M105" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N105" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O105" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="P105" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q105" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="R105" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="S105" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="T105" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U105" s="8">
+      <c r="U105" s="25">
         <v>1.0</v>
       </c>
+      <c r="V105" s="25"/>
+      <c r="W105" s="25"/>
+      <c r="X105" s="25"/>
+      <c r="Y105" s="25"/>
+      <c r="Z105" s="25"/>
+      <c r="AA105" s="25"/>
+      <c r="AB105" s="25"/>
+      <c r="AC105" s="25"/>
+      <c r="AD105" s="25"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="8">
+      <c r="A106" s="27">
         <v>1.118315889E9</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="27">
         <v>2017.0</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I106" s="8" t="s">
+      <c r="I106" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="J106" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="L106" s="8">
+      <c r="L106" s="27">
         <v>26.0</v>
       </c>
-      <c r="M106" s="11"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11"/>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="8" t="s">
+      <c r="M106" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N106" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O106" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P106" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q106" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="R106" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S106" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="T106" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U106" s="8">
+      <c r="U106" s="27">
         <v>2.0</v>
       </c>
+      <c r="V106" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="27"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="8">
+      <c r="A107" s="25">
         <v>1.315379489E9</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="25">
         <v>2021.0</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="H107" s="8" t="s">
+      <c r="H107" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="L107" s="8">
+      <c r="L107" s="25">
         <v>27.0</v>
       </c>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="15"/>
-      <c r="S107" s="15"/>
-      <c r="T107" s="8" t="s">
+      <c r="M107" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N107" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="O107" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P107" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q107" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="R107" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S107" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="T107" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U107" s="8">
+      <c r="U107" s="25">
         <v>1.0</v>
       </c>
+      <c r="V107" s="25"/>
+      <c r="W107" s="25"/>
+      <c r="X107" s="25"/>
+      <c r="Y107" s="25"/>
+      <c r="Z107" s="25"/>
+      <c r="AA107" s="25"/>
+      <c r="AB107" s="25"/>
+      <c r="AC107" s="25"/>
+      <c r="AD107" s="25"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="8">
+      <c r="A108" s="27">
         <v>1.315379489E9</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="27">
         <v>2021.0</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="H108" s="8" t="s">
+      <c r="H108" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="J108" s="8" t="s">
+      <c r="J108" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="K108" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="L108" s="8">
+      <c r="L108" s="27">
         <v>27.0</v>
       </c>
-      <c r="M108" s="11"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11"/>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="8" t="s">
+      <c r="M108" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N108" s="28" t="s">
+        <v>751</v>
+      </c>
+      <c r="O108" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="P108" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q108" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="R108" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S108" s="28" t="s">
+        <v>752</v>
+      </c>
+      <c r="T108" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U108" s="8">
+      <c r="U108" s="27">
         <v>2.0</v>
       </c>
+      <c r="V108" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="8">
+      <c r="A109" s="25">
         <v>1.374035721E9</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="25">
         <v>2017.0</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I109" s="8" t="s">
+      <c r="I109" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="J109" s="8" t="s">
+      <c r="J109" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="K109" s="8" t="s">
+      <c r="K109" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="L109" s="8">
+      <c r="L109" s="25">
         <v>28.0</v>
       </c>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="8" t="s">
+      <c r="M109" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="N109" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O109" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P109" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q109" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="R109" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S109" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="T109" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U109" s="8">
+      <c r="U109" s="25">
         <v>1.0</v>
       </c>
+      <c r="V109" s="25"/>
+      <c r="W109" s="25"/>
+      <c r="X109" s="25"/>
+      <c r="Y109" s="25"/>
+      <c r="Z109" s="25"/>
+      <c r="AA109" s="25"/>
+      <c r="AB109" s="25"/>
+      <c r="AC109" s="25"/>
+      <c r="AD109" s="25"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="8">
+      <c r="A110" s="27">
         <v>1.374035721E9</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="27">
         <v>2017.0</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="H110" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="I110" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="J110" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="K110" s="8" t="s">
+      <c r="K110" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="L110" s="8">
+      <c r="L110" s="27">
         <v>28.0</v>
       </c>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="11"/>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="8" t="s">
+      <c r="M110" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N110" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="O110" s="28" t="s">
+        <v>683</v>
+      </c>
+      <c r="P110" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q110" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="R110" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="S110" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="T110" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="U110" s="8">
+      <c r="U110" s="27">
         <v>2.0</v>
       </c>
+      <c r="V110" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="27"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="8">
+      <c r="A111" s="25">
         <v>1.426267857E9</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="25">
         <v>2021.0</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="H111" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I111" s="8" t="s">
+      <c r="I111" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="K111" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="L111" s="8">
+      <c r="L111" s="25">
         <v>29.0</v>
       </c>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="15"/>
-      <c r="S111" s="15"/>
-      <c r="T111" s="8" t="s">
+      <c r="M111" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N111" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="O111" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="P111" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q111" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="R111" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="S111" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="T111" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="U111" s="8">
+      <c r="U111" s="25">
         <v>1.0</v>
       </c>
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
+      <c r="X111" s="25"/>
+      <c r="Y111" s="25"/>
+      <c r="Z111" s="25"/>
+      <c r="AA111" s="25"/>
+      <c r="AB111" s="25"/>
+      <c r="AC111" s="25"/>
+      <c r="AD111" s="25"/>
     </row>
     <row r="112" ht="30.0" customHeight="1">
-      <c r="A112" s="8">
+      <c r="A112" s="25">
         <v>1.426267857E9</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="25">
         <v>2021.0</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="H112" s="8" t="s">
+      <c r="H112" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J112" s="8" t="s">
+      <c r="J112" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="K112" s="8" t="s">
+      <c r="K112" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="L112" s="8">
+      <c r="L112" s="25">
         <v>29.0</v>
       </c>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="8" t="s">
+      <c r="M112" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N112" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="O112" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="P112" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q112" s="32" t="s">
+        <v>682</v>
+      </c>
+      <c r="R112" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S112" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="T112" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="U112" s="8">
+      <c r="U112" s="25">
         <v>2.0</v>
       </c>
+      <c r="V112" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="W112" s="25"/>
+      <c r="X112" s="25"/>
+      <c r="Y112" s="25"/>
+      <c r="Z112" s="25"/>
+      <c r="AA112" s="25"/>
+      <c r="AB112" s="25"/>
+      <c r="AC112" s="25"/>
+      <c r="AD112" s="25"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="24">
+      <c r="A113" s="34">
         <v>2.055153191E9</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="C113" s="24" t="s">
+      <c r="C113" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="34">
         <v>2020.0</v>
       </c>
-      <c r="E113" s="24" t="s">
+      <c r="E113" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F113" s="24" t="s">
+      <c r="F113" s="34" t="s">
         <v>503</v>
       </c>
-      <c r="G113" s="24" t="s">
+      <c r="G113" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="H113" s="24" t="s">
+      <c r="H113" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="I113" s="24" t="s">
+      <c r="I113" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J113" s="24" t="s">
+      <c r="J113" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K113" s="24" t="s">
+      <c r="K113" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="L113" s="24">
+      <c r="L113" s="34">
         <v>30.0</v>
       </c>
-      <c r="M113" s="25" t="s">
+      <c r="M113" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="N113" s="25" t="s">
-        <v>677</v>
-      </c>
-      <c r="O113" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P113" s="25" t="s">
+      <c r="N113" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="O113" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P113" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q113" s="25" t="s">
-        <v>680</v>
-      </c>
-      <c r="R113" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="S113" s="25" t="s">
+      <c r="Q113" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="R113" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="S113" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="T113" s="24" t="s">
+      <c r="T113" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U113" s="24">
+      <c r="U113" s="34">
         <v>1.0</v>
       </c>
-      <c r="V113" s="25" t="s">
-        <v>682</v>
-      </c>
-      <c r="W113" s="26"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="26"/>
-      <c r="Z113" s="26"/>
-      <c r="AA113" s="26"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="26"/>
-      <c r="AD113" s="26"/>
+      <c r="V113" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="36"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="8">
@@ -35542,80 +37228,80 @@
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="24">
+      <c r="A115" s="34">
         <v>2.273914836E9</v>
       </c>
-      <c r="B115" s="24" t="s">
+      <c r="B115" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="34">
         <v>2022.0</v>
       </c>
-      <c r="E115" s="24" t="s">
+      <c r="E115" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F115" s="24" t="s">
+      <c r="F115" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="G115" s="24" t="s">
+      <c r="G115" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="H115" s="24" t="s">
+      <c r="H115" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="I115" s="24" t="s">
+      <c r="I115" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J115" s="24" t="s">
+      <c r="J115" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="K115" s="24" t="s">
+      <c r="K115" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="L115" s="24">
+      <c r="L115" s="34">
         <v>31.0</v>
       </c>
-      <c r="M115" s="25" t="s">
+      <c r="M115" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="N115" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="O115" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P115" s="25" t="s">
+      <c r="N115" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="O115" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P115" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q115" s="25" t="s">
-        <v>680</v>
-      </c>
-      <c r="R115" s="25" t="s">
+      <c r="Q115" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="R115" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="S115" s="25" t="s">
-        <v>684</v>
-      </c>
-      <c r="T115" s="24" t="s">
+      <c r="S115" s="35" t="s">
+        <v>761</v>
+      </c>
+      <c r="T115" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U115" s="24">
+      <c r="U115" s="34">
         <v>1.0</v>
       </c>
-      <c r="V115" s="25" t="s">
-        <v>685</v>
-      </c>
-      <c r="W115" s="26"/>
-      <c r="X115" s="26"/>
-      <c r="Y115" s="26"/>
-      <c r="Z115" s="26"/>
-      <c r="AA115" s="26"/>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="26"/>
-      <c r="AD115" s="26"/>
+      <c r="V115" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="W115" s="36"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="36"/>
+      <c r="Z115" s="36"/>
+      <c r="AA115" s="36"/>
+      <c r="AB115" s="36"/>
+      <c r="AC115" s="36"/>
+      <c r="AD115" s="36"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="8">
@@ -35669,80 +37355,80 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="24">
+      <c r="A117" s="34">
         <v>1.763513559E9</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="B117" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D117" s="34">
         <v>2021.0</v>
       </c>
-      <c r="E117" s="24" t="s">
+      <c r="E117" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F117" s="24" t="s">
+      <c r="F117" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="G117" s="24" t="s">
+      <c r="G117" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="H117" s="24" t="s">
+      <c r="H117" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="I117" s="24" t="s">
+      <c r="I117" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J117" s="24" t="s">
+      <c r="J117" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="K117" s="24" t="s">
+      <c r="K117" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="L117" s="24">
+      <c r="L117" s="34">
         <v>32.0</v>
       </c>
-      <c r="M117" s="25" t="s">
+      <c r="M117" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N117" s="25" t="s">
+      <c r="N117" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O117" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="P117" s="25" t="s">
+      <c r="O117" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="P117" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="Q117" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="R117" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S117" s="25" t="s">
-        <v>690</v>
-      </c>
-      <c r="T117" s="24" t="s">
+      <c r="Q117" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="R117" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="S117" s="35" t="s">
+        <v>764</v>
+      </c>
+      <c r="T117" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U117" s="24">
+      <c r="U117" s="34">
         <v>1.0</v>
       </c>
-      <c r="V117" s="25" t="s">
-        <v>691</v>
-      </c>
-      <c r="W117" s="26"/>
-      <c r="X117" s="26"/>
-      <c r="Y117" s="26"/>
-      <c r="Z117" s="26"/>
-      <c r="AA117" s="26"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="26"/>
-      <c r="AD117" s="26"/>
+      <c r="V117" s="35" t="s">
+        <v>765</v>
+      </c>
+      <c r="W117" s="36"/>
+      <c r="X117" s="36"/>
+      <c r="Y117" s="36"/>
+      <c r="Z117" s="36"/>
+      <c r="AA117" s="36"/>
+      <c r="AB117" s="36"/>
+      <c r="AC117" s="36"/>
+      <c r="AD117" s="36"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="8">
@@ -35796,80 +37482,80 @@
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="24">
+      <c r="A119" s="34">
         <v>1.345598079E9</v>
       </c>
-      <c r="B119" s="24" t="s">
+      <c r="B119" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="D119" s="24">
+      <c r="D119" s="34">
         <v>2022.0</v>
       </c>
-      <c r="E119" s="24" t="s">
+      <c r="E119" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F119" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="G119" s="24" t="s">
+      <c r="G119" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="H119" s="24" t="s">
+      <c r="H119" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="I119" s="24" t="s">
+      <c r="I119" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J119" s="24" t="s">
+      <c r="J119" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="K119" s="24" t="s">
+      <c r="K119" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="L119" s="24">
+      <c r="L119" s="34">
         <v>33.0</v>
       </c>
-      <c r="M119" s="25" t="s">
+      <c r="M119" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N119" s="25" t="s">
+      <c r="N119" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="O119" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="O119" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="P119" s="25" t="s">
+      <c r="P119" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q119" s="25" t="s">
-        <v>680</v>
-      </c>
-      <c r="R119" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="S119" s="25" t="s">
-        <v>692</v>
-      </c>
-      <c r="T119" s="24" t="s">
+      <c r="Q119" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="R119" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="S119" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="T119" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U119" s="24">
+      <c r="U119" s="34">
         <v>1.0</v>
       </c>
-      <c r="V119" s="25" t="s">
-        <v>693</v>
-      </c>
-      <c r="W119" s="26"/>
-      <c r="X119" s="26"/>
-      <c r="Y119" s="26"/>
-      <c r="Z119" s="26"/>
-      <c r="AA119" s="26"/>
-      <c r="AB119" s="26"/>
-      <c r="AC119" s="26"/>
-      <c r="AD119" s="26"/>
+      <c r="V119" s="35" t="s">
+        <v>767</v>
+      </c>
+      <c r="W119" s="36"/>
+      <c r="X119" s="36"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="36"/>
+      <c r="AA119" s="36"/>
+      <c r="AB119" s="36"/>
+      <c r="AC119" s="36"/>
+      <c r="AD119" s="36"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="8">
@@ -35923,80 +37609,80 @@
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="24">
+      <c r="A121" s="34">
         <v>3.135645357E9</v>
       </c>
-      <c r="B121" s="24" t="s">
+      <c r="B121" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="D121" s="24">
+      <c r="D121" s="34">
         <v>2018.0</v>
       </c>
-      <c r="E121" s="24" t="s">
+      <c r="E121" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="24" t="s">
+      <c r="F121" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="G121" s="24" t="s">
+      <c r="G121" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="H121" s="24" t="s">
+      <c r="H121" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="I121" s="24" t="s">
+      <c r="I121" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J121" s="24" t="s">
+      <c r="J121" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K121" s="24" t="s">
+      <c r="K121" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="L121" s="24">
+      <c r="L121" s="34">
         <v>34.0</v>
       </c>
-      <c r="M121" s="25" t="s">
+      <c r="M121" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="N121" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="O121" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P121" s="25" t="s">
+      <c r="N121" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="O121" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P121" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q121" s="25" t="s">
+      <c r="Q121" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="R121" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="R121" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S121" s="25" t="s">
+      <c r="S121" s="35" t="s">
         <v>546</v>
       </c>
-      <c r="T121" s="24" t="s">
+      <c r="T121" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U121" s="24">
+      <c r="U121" s="34">
         <v>1.0</v>
       </c>
-      <c r="V121" s="25" t="s">
-        <v>694</v>
-      </c>
-      <c r="W121" s="26"/>
-      <c r="X121" s="26"/>
-      <c r="Y121" s="26"/>
-      <c r="Z121" s="26"/>
-      <c r="AA121" s="26"/>
-      <c r="AB121" s="26"/>
-      <c r="AC121" s="26"/>
-      <c r="AD121" s="26"/>
+      <c r="V121" s="35" t="s">
+        <v>768</v>
+      </c>
+      <c r="W121" s="36"/>
+      <c r="X121" s="36"/>
+      <c r="Y121" s="36"/>
+      <c r="Z121" s="36"/>
+      <c r="AA121" s="36"/>
+      <c r="AB121" s="36"/>
+      <c r="AC121" s="36"/>
+      <c r="AD121" s="36"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="8">
@@ -36050,80 +37736,80 @@
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="24">
+      <c r="A123" s="34">
         <v>3.856280479E9</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B123" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="24">
+      <c r="D123" s="34">
         <v>2021.0</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="E123" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F123" s="24" t="s">
+      <c r="F123" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="G123" s="24" t="s">
+      <c r="G123" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="H123" s="24" t="s">
+      <c r="H123" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="I123" s="24" t="s">
+      <c r="I123" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J123" s="24" t="s">
+      <c r="J123" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="K123" s="24" t="s">
+      <c r="K123" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="L123" s="24">
+      <c r="L123" s="34">
         <v>35.0</v>
       </c>
-      <c r="M123" s="25" t="s">
+      <c r="M123" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="N123" s="25" t="s">
+      <c r="N123" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="O123" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="O123" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="P123" s="25" t="s">
+      <c r="P123" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q123" s="25" t="s">
-        <v>680</v>
-      </c>
-      <c r="R123" s="25" t="s">
+      <c r="Q123" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="R123" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="S123" s="25" t="s">
+      <c r="S123" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="T123" s="24" t="s">
+      <c r="T123" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U123" s="24">
+      <c r="U123" s="34">
         <v>1.0</v>
       </c>
-      <c r="V123" s="25" t="s">
-        <v>695</v>
-      </c>
-      <c r="W123" s="26"/>
-      <c r="X123" s="26"/>
-      <c r="Y123" s="26"/>
-      <c r="Z123" s="26"/>
-      <c r="AA123" s="26"/>
-      <c r="AB123" s="26"/>
-      <c r="AC123" s="26"/>
-      <c r="AD123" s="26"/>
+      <c r="V123" s="35" t="s">
+        <v>769</v>
+      </c>
+      <c r="W123" s="36"/>
+      <c r="X123" s="36"/>
+      <c r="Y123" s="36"/>
+      <c r="Z123" s="36"/>
+      <c r="AA123" s="36"/>
+      <c r="AB123" s="36"/>
+      <c r="AC123" s="36"/>
+      <c r="AD123" s="36"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="8">
@@ -36177,80 +37863,80 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="24">
+      <c r="A125" s="34">
         <v>2.609260641E9</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C125" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="34">
         <v>2022.0</v>
       </c>
-      <c r="E125" s="24" t="s">
+      <c r="E125" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F125" s="24" t="s">
+      <c r="F125" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="G125" s="24" t="s">
+      <c r="G125" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="H125" s="24" t="s">
+      <c r="H125" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="I125" s="24" t="s">
+      <c r="I125" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J125" s="24" t="s">
+      <c r="J125" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="K125" s="24" t="s">
+      <c r="K125" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="L125" s="24">
+      <c r="L125" s="34">
         <v>36.0</v>
       </c>
-      <c r="M125" s="25" t="s">
+      <c r="M125" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N125" s="25" t="s">
+      <c r="N125" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="O125" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P125" s="25" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q125" s="25" t="s">
-        <v>697</v>
-      </c>
-      <c r="R125" s="25" t="s">
+      <c r="O125" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="S125" s="25" t="s">
-        <v>698</v>
-      </c>
-      <c r="T125" s="24" t="s">
+      <c r="P125" s="35" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q125" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="R125" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="S125" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="T125" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U125" s="24">
+      <c r="U125" s="34">
         <v>1.0</v>
       </c>
-      <c r="V125" s="25" t="s">
+      <c r="V125" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="W125" s="26"/>
-      <c r="X125" s="26"/>
-      <c r="Y125" s="26"/>
-      <c r="Z125" s="26"/>
-      <c r="AA125" s="26"/>
-      <c r="AB125" s="26"/>
-      <c r="AC125" s="26"/>
-      <c r="AD125" s="26"/>
+      <c r="W125" s="36"/>
+      <c r="X125" s="36"/>
+      <c r="Y125" s="36"/>
+      <c r="Z125" s="36"/>
+      <c r="AA125" s="36"/>
+      <c r="AB125" s="36"/>
+      <c r="AC125" s="36"/>
+      <c r="AD125" s="36"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="8">
@@ -36304,80 +37990,80 @@
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="24">
+      <c r="A127" s="34">
         <v>6.66050348E8</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="B127" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="C127" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="D127" s="24">
+      <c r="D127" s="34">
         <v>2021.0</v>
       </c>
-      <c r="E127" s="24" t="s">
+      <c r="E127" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F127" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="G127" s="24" t="s">
+      <c r="G127" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="H127" s="24" t="s">
+      <c r="H127" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="I127" s="24" t="s">
+      <c r="I127" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J127" s="24" t="s">
+      <c r="J127" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="K127" s="24" t="s">
+      <c r="K127" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="L127" s="24">
+      <c r="L127" s="34">
         <v>37.0</v>
       </c>
-      <c r="M127" s="25" t="s">
+      <c r="M127" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N127" s="25" t="s">
+      <c r="N127" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O127" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="P127" s="25" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q127" s="25" t="s">
-        <v>680</v>
-      </c>
-      <c r="R127" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="S127" s="25" t="s">
+      <c r="O127" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="P127" s="35" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q127" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="R127" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="S127" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="T127" s="24" t="s">
+      <c r="T127" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U127" s="24">
+      <c r="U127" s="34">
         <v>1.0</v>
       </c>
-      <c r="V127" s="25" t="s">
+      <c r="V127" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="W127" s="26"/>
-      <c r="X127" s="26"/>
-      <c r="Y127" s="26"/>
-      <c r="Z127" s="26"/>
-      <c r="AA127" s="26"/>
-      <c r="AB127" s="26"/>
-      <c r="AC127" s="26"/>
-      <c r="AD127" s="26"/>
+      <c r="W127" s="36"/>
+      <c r="X127" s="36"/>
+      <c r="Y127" s="36"/>
+      <c r="Z127" s="36"/>
+      <c r="AA127" s="36"/>
+      <c r="AB127" s="36"/>
+      <c r="AC127" s="36"/>
+      <c r="AD127" s="36"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="8">
@@ -36431,80 +38117,80 @@
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="24">
+      <c r="A129" s="34">
         <v>1.637690235E9</v>
       </c>
-      <c r="B129" s="24" t="s">
+      <c r="B129" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="C129" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D129" s="24">
+      <c r="D129" s="34">
         <v>2018.0</v>
       </c>
-      <c r="E129" s="24" t="s">
+      <c r="E129" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="G129" s="24" t="s">
+      <c r="G129" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="H129" s="24" t="s">
+      <c r="H129" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="I129" s="24" t="s">
+      <c r="I129" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J129" s="24" t="s">
+      <c r="J129" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="K129" s="24" t="s">
+      <c r="K129" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="L129" s="24">
+      <c r="L129" s="34">
         <v>38.0</v>
       </c>
-      <c r="M129" s="25" t="s">
+      <c r="M129" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="N129" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="O129" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P129" s="25" t="s">
+      <c r="N129" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="O129" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P129" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q129" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="R129" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S129" s="25" t="s">
+      <c r="Q129" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="R129" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="S129" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="T129" s="24" t="s">
+      <c r="T129" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U129" s="24">
+      <c r="U129" s="34">
         <v>1.0</v>
       </c>
-      <c r="V129" s="25" t="s">
-        <v>700</v>
-      </c>
-      <c r="W129" s="26"/>
-      <c r="X129" s="26"/>
-      <c r="Y129" s="26"/>
-      <c r="Z129" s="26"/>
-      <c r="AA129" s="26"/>
-      <c r="AB129" s="26"/>
-      <c r="AC129" s="26"/>
-      <c r="AD129" s="26"/>
+      <c r="V129" s="35" t="s">
+        <v>772</v>
+      </c>
+      <c r="W129" s="36"/>
+      <c r="X129" s="36"/>
+      <c r="Y129" s="36"/>
+      <c r="Z129" s="36"/>
+      <c r="AA129" s="36"/>
+      <c r="AB129" s="36"/>
+      <c r="AC129" s="36"/>
+      <c r="AD129" s="36"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="8">
@@ -36558,80 +38244,80 @@
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="24">
+      <c r="A131" s="34">
         <v>2.155422499E9</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B131" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="C131" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="34">
         <v>2022.0</v>
       </c>
-      <c r="E131" s="24" t="s">
+      <c r="E131" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F131" s="24" t="s">
+      <c r="F131" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G131" s="24" t="s">
+      <c r="G131" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="H131" s="24" t="s">
+      <c r="H131" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="I131" s="24" t="s">
+      <c r="I131" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J131" s="24" t="s">
+      <c r="J131" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="K131" s="24" t="s">
+      <c r="K131" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="L131" s="24">
+      <c r="L131" s="34">
         <v>39.0</v>
       </c>
-      <c r="M131" s="25" t="s">
+      <c r="M131" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N131" s="25" t="s">
+      <c r="N131" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="O131" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P131" s="25" t="s">
+      <c r="O131" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P131" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="Q131" s="25" t="s">
-        <v>697</v>
-      </c>
-      <c r="R131" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="S131" s="25" t="s">
+      <c r="Q131" s="35" t="s">
+        <v>770</v>
+      </c>
+      <c r="R131" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="S131" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="T131" s="24" t="s">
+      <c r="T131" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U131" s="24">
+      <c r="U131" s="34">
         <v>1.0</v>
       </c>
-      <c r="V131" s="25" t="s">
+      <c r="V131" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="W131" s="26"/>
-      <c r="X131" s="26"/>
-      <c r="Y131" s="26"/>
-      <c r="Z131" s="26"/>
-      <c r="AA131" s="26"/>
-      <c r="AB131" s="26"/>
-      <c r="AC131" s="26"/>
-      <c r="AD131" s="26"/>
+      <c r="W131" s="36"/>
+      <c r="X131" s="36"/>
+      <c r="Y131" s="36"/>
+      <c r="Z131" s="36"/>
+      <c r="AA131" s="36"/>
+      <c r="AB131" s="36"/>
+      <c r="AC131" s="36"/>
+      <c r="AD131" s="36"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="8">
@@ -36685,80 +38371,80 @@
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="24">
+      <c r="A133" s="34">
         <v>3.309250332E9</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="B133" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C133" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="34">
         <v>2018.0</v>
       </c>
-      <c r="E133" s="24" t="s">
+      <c r="E133" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F133" s="24" t="s">
+      <c r="F133" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="G133" s="24" t="s">
+      <c r="G133" s="34" t="s">
         <v>595</v>
       </c>
-      <c r="H133" s="24" t="s">
+      <c r="H133" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="I133" s="24" t="s">
+      <c r="I133" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J133" s="24" t="s">
+      <c r="J133" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K133" s="24" t="s">
+      <c r="K133" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L133" s="24">
+      <c r="L133" s="34">
         <v>40.0</v>
       </c>
-      <c r="M133" s="25" t="s">
+      <c r="M133" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N133" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="O133" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P133" s="25" t="s">
+      <c r="N133" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="O133" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P133" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q133" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="R133" s="25" t="s">
+      <c r="Q133" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="R133" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="S133" s="25" t="s">
+      <c r="S133" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="T133" s="24" t="s">
+      <c r="T133" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U133" s="24">
+      <c r="U133" s="34">
         <v>1.0</v>
       </c>
-      <c r="V133" s="25" t="s">
-        <v>701</v>
-      </c>
-      <c r="W133" s="26"/>
-      <c r="X133" s="26"/>
-      <c r="Y133" s="26"/>
-      <c r="Z133" s="26"/>
-      <c r="AA133" s="26"/>
-      <c r="AB133" s="26"/>
-      <c r="AC133" s="26"/>
-      <c r="AD133" s="26"/>
+      <c r="V133" s="35" t="s">
+        <v>773</v>
+      </c>
+      <c r="W133" s="36"/>
+      <c r="X133" s="36"/>
+      <c r="Y133" s="36"/>
+      <c r="Z133" s="36"/>
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="8">
@@ -36812,80 +38498,80 @@
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="24">
+      <c r="A135" s="34">
         <v>3.625722965E9</v>
       </c>
-      <c r="B135" s="24" t="s">
+      <c r="B135" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="C135" s="34" t="s">
         <v>601</v>
       </c>
-      <c r="D135" s="24">
+      <c r="D135" s="34">
         <v>2021.0</v>
       </c>
-      <c r="E135" s="24" t="s">
+      <c r="E135" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F135" s="24" t="s">
+      <c r="F135" s="34" t="s">
         <v>602</v>
       </c>
-      <c r="G135" s="24" t="s">
+      <c r="G135" s="34" t="s">
         <v>603</v>
       </c>
-      <c r="H135" s="24" t="s">
+      <c r="H135" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="I135" s="24" t="s">
+      <c r="I135" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J135" s="24" t="s">
+      <c r="J135" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="K135" s="24" t="s">
+      <c r="K135" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="L135" s="24">
+      <c r="L135" s="34">
         <v>41.0</v>
       </c>
-      <c r="M135" s="25" t="s">
+      <c r="M135" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N135" s="25" t="s">
+      <c r="N135" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O135" s="25" t="s">
-        <v>678</v>
-      </c>
-      <c r="P135" s="25" t="s">
+      <c r="O135" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P135" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="Q135" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="R135" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S135" s="25" t="s">
+      <c r="Q135" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="R135" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="S135" s="35" t="s">
         <v>607</v>
       </c>
-      <c r="T135" s="24" t="s">
+      <c r="T135" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U135" s="24">
+      <c r="U135" s="34">
         <v>1.0</v>
       </c>
-      <c r="V135" s="25" t="s">
-        <v>702</v>
-      </c>
-      <c r="W135" s="26"/>
-      <c r="X135" s="26"/>
-      <c r="Y135" s="26"/>
-      <c r="Z135" s="26"/>
-      <c r="AA135" s="26"/>
-      <c r="AB135" s="26"/>
-      <c r="AC135" s="26"/>
-      <c r="AD135" s="26"/>
+      <c r="V135" s="35" t="s">
+        <v>774</v>
+      </c>
+      <c r="W135" s="36"/>
+      <c r="X135" s="36"/>
+      <c r="Y135" s="36"/>
+      <c r="Z135" s="36"/>
+      <c r="AA135" s="36"/>
+      <c r="AB135" s="36"/>
+      <c r="AC135" s="36"/>
+      <c r="AD135" s="36"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="8">
@@ -36939,80 +38625,80 @@
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="24">
+      <c r="A137" s="34">
         <v>4.278392816E9</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="34" t="s">
         <v>610</v>
       </c>
-      <c r="D137" s="24">
+      <c r="D137" s="34">
         <v>2019.0</v>
       </c>
-      <c r="E137" s="24" t="s">
+      <c r="E137" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F137" s="24" t="s">
+      <c r="F137" s="34" t="s">
         <v>611</v>
       </c>
-      <c r="G137" s="24" t="s">
+      <c r="G137" s="34" t="s">
         <v>612</v>
       </c>
-      <c r="H137" s="24" t="s">
+      <c r="H137" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="I137" s="24" t="s">
+      <c r="I137" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J137" s="24" t="s">
+      <c r="J137" s="34" t="s">
         <v>613</v>
       </c>
-      <c r="K137" s="24" t="s">
+      <c r="K137" s="34" t="s">
         <v>614</v>
       </c>
-      <c r="L137" s="24">
+      <c r="L137" s="34">
         <v>42.0</v>
       </c>
-      <c r="M137" s="25" t="s">
+      <c r="M137" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N137" s="25" t="s">
+      <c r="N137" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="O137" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="P137" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q137" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="R137" s="25" t="s">
+      <c r="O137" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="P137" s="35" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q137" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="R137" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="S137" s="25" t="s">
-        <v>703</v>
-      </c>
-      <c r="T137" s="24" t="s">
+      <c r="S137" s="35" t="s">
+        <v>775</v>
+      </c>
+      <c r="T137" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U137" s="24">
+      <c r="U137" s="34">
         <v>1.0</v>
       </c>
-      <c r="V137" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="W137" s="24"/>
-      <c r="X137" s="24"/>
-      <c r="Y137" s="24"/>
-      <c r="Z137" s="24"/>
-      <c r="AA137" s="24"/>
-      <c r="AB137" s="24"/>
-      <c r="AC137" s="24"/>
-      <c r="AD137" s="24"/>
+      <c r="V137" s="35" t="s">
+        <v>776</v>
+      </c>
+      <c r="W137" s="34"/>
+      <c r="X137" s="34"/>
+      <c r="Y137" s="34"/>
+      <c r="Z137" s="34"/>
+      <c r="AA137" s="34"/>
+      <c r="AB137" s="34"/>
+      <c r="AC137" s="34"/>
+      <c r="AD137" s="34"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="8">
@@ -37066,80 +38752,80 @@
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="24">
+      <c r="A139" s="34">
         <v>5.66043228E8</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C139" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="D139" s="24">
+      <c r="D139" s="34">
         <v>2021.0</v>
       </c>
-      <c r="E139" s="24" t="s">
+      <c r="E139" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F139" s="24" t="s">
+      <c r="F139" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="G139" s="24" t="s">
+      <c r="G139" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="H139" s="24" t="s">
+      <c r="H139" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I139" s="24" t="s">
+      <c r="I139" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J139" s="24" t="s">
+      <c r="J139" s="34" t="s">
         <v>622</v>
       </c>
-      <c r="K139" s="24" t="s">
+      <c r="K139" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="L139" s="24">
+      <c r="L139" s="34">
         <v>43.0</v>
       </c>
-      <c r="M139" s="25" t="s">
+      <c r="M139" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N139" s="25" t="s">
+      <c r="N139" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="O139" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="P139" s="25" t="s">
+      <c r="O139" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="P139" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q139" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="R139" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S139" s="25" t="s">
+      <c r="Q139" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="R139" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="S139" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="T139" s="24" t="s">
+      <c r="T139" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U139" s="24">
+      <c r="U139" s="34">
         <v>1.0</v>
       </c>
-      <c r="V139" s="25" t="s">
-        <v>705</v>
-      </c>
-      <c r="W139" s="26"/>
-      <c r="X139" s="26"/>
-      <c r="Y139" s="26"/>
-      <c r="Z139" s="26"/>
-      <c r="AA139" s="26"/>
-      <c r="AB139" s="26"/>
-      <c r="AC139" s="26"/>
-      <c r="AD139" s="26"/>
+      <c r="V139" s="35" t="s">
+        <v>777</v>
+      </c>
+      <c r="W139" s="36"/>
+      <c r="X139" s="36"/>
+      <c r="Y139" s="36"/>
+      <c r="Z139" s="36"/>
+      <c r="AA139" s="36"/>
+      <c r="AB139" s="36"/>
+      <c r="AC139" s="36"/>
+      <c r="AD139" s="36"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="8">
@@ -37193,80 +38879,80 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="24">
+      <c r="A141" s="34">
         <v>8.53680639E8</v>
       </c>
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="34" t="s">
         <v>628</v>
       </c>
-      <c r="C141" s="24" t="s">
+      <c r="C141" s="34" t="s">
         <v>629</v>
       </c>
-      <c r="D141" s="24">
+      <c r="D141" s="34">
         <v>2019.0</v>
       </c>
-      <c r="E141" s="24" t="s">
+      <c r="E141" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F141" s="24" t="s">
+      <c r="F141" s="34" t="s">
         <v>630</v>
       </c>
-      <c r="G141" s="24" t="s">
+      <c r="G141" s="34" t="s">
         <v>631</v>
       </c>
-      <c r="H141" s="24" t="s">
+      <c r="H141" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I141" s="24" t="s">
+      <c r="I141" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J141" s="24" t="s">
+      <c r="J141" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="K141" s="24" t="s">
+      <c r="K141" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="L141" s="24">
+      <c r="L141" s="34">
         <v>44.0</v>
       </c>
-      <c r="M141" s="25" t="s">
+      <c r="M141" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N141" s="25" t="s">
+      <c r="N141" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="O141" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="P141" s="25" t="s">
+      <c r="O141" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="P141" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="Q141" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="R141" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S141" s="25" t="s">
+      <c r="Q141" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="R141" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="S141" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="T141" s="24" t="s">
+      <c r="T141" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U141" s="24">
+      <c r="U141" s="34">
         <v>1.0</v>
       </c>
-      <c r="V141" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="W141" s="26"/>
-      <c r="X141" s="26"/>
-      <c r="Y141" s="26"/>
-      <c r="Z141" s="26"/>
-      <c r="AA141" s="26"/>
-      <c r="AB141" s="26"/>
-      <c r="AC141" s="26"/>
-      <c r="AD141" s="26"/>
+      <c r="V141" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="W141" s="36"/>
+      <c r="X141" s="36"/>
+      <c r="Y141" s="36"/>
+      <c r="Z141" s="36"/>
+      <c r="AA141" s="36"/>
+      <c r="AB141" s="36"/>
+      <c r="AC141" s="36"/>
+      <c r="AD141" s="36"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="8">
@@ -37320,80 +39006,80 @@
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="24">
+      <c r="A143" s="34">
         <v>3.637456466E9</v>
       </c>
-      <c r="B143" s="24" t="s">
+      <c r="B143" s="34" t="s">
         <v>637</v>
       </c>
-      <c r="C143" s="24" t="s">
+      <c r="C143" s="34" t="s">
         <v>638</v>
       </c>
-      <c r="D143" s="24">
+      <c r="D143" s="34">
         <v>2020.0</v>
       </c>
-      <c r="E143" s="24" t="s">
+      <c r="E143" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F143" s="24" t="s">
+      <c r="F143" s="34" t="s">
         <v>594</v>
       </c>
-      <c r="G143" s="24" t="s">
+      <c r="G143" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="H143" s="24" t="s">
+      <c r="H143" s="34" t="s">
         <v>640</v>
       </c>
-      <c r="I143" s="24" t="s">
+      <c r="I143" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J143" s="24" t="s">
+      <c r="J143" s="34" t="s">
         <v>641</v>
       </c>
-      <c r="K143" s="24" t="s">
+      <c r="K143" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="L143" s="24">
+      <c r="L143" s="34">
         <v>45.0</v>
       </c>
-      <c r="M143" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="N143" s="25" t="s">
+      <c r="M143" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="N143" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="O143" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="P143" s="25" t="s">
+      <c r="O143" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="P143" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q143" s="25" t="s">
+      <c r="Q143" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="R143" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S143" s="25" t="s">
+      <c r="R143" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="S143" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="T143" s="24" t="s">
+      <c r="T143" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U143" s="24">
+      <c r="U143" s="34">
         <v>1.0</v>
       </c>
-      <c r="V143" s="25" t="s">
-        <v>709</v>
-      </c>
-      <c r="W143" s="26"/>
-      <c r="X143" s="26"/>
-      <c r="Y143" s="26"/>
-      <c r="Z143" s="26"/>
-      <c r="AA143" s="26"/>
-      <c r="AB143" s="26"/>
-      <c r="AC143" s="26"/>
-      <c r="AD143" s="26"/>
+      <c r="V143" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="W143" s="36"/>
+      <c r="X143" s="36"/>
+      <c r="Y143" s="36"/>
+      <c r="Z143" s="36"/>
+      <c r="AA143" s="36"/>
+      <c r="AB143" s="36"/>
+      <c r="AC143" s="36"/>
+      <c r="AD143" s="36"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="8">
@@ -37447,80 +39133,80 @@
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="24">
+      <c r="A145" s="34">
         <v>3.754172825E9</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="B145" s="34" t="s">
         <v>648</v>
       </c>
-      <c r="C145" s="24" t="s">
+      <c r="C145" s="34" t="s">
         <v>649</v>
       </c>
-      <c r="D145" s="24">
+      <c r="D145" s="34">
         <v>2022.0</v>
       </c>
-      <c r="E145" s="24" t="s">
+      <c r="E145" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F145" s="24" t="s">
+      <c r="F145" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G145" s="24" t="s">
+      <c r="G145" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="H145" s="24" t="s">
+      <c r="H145" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I145" s="24" t="s">
+      <c r="I145" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="J145" s="24" t="s">
+      <c r="J145" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K145" s="24" t="s">
+      <c r="K145" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L145" s="24">
+      <c r="L145" s="34">
         <v>46.0</v>
       </c>
-      <c r="M145" s="25" t="s">
+      <c r="M145" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="N145" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="O145" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="P145" s="25" t="s">
+      <c r="N145" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="O145" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P145" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="Q145" s="25" t="s">
+      <c r="Q145" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="R145" s="35" t="s">
         <v>680</v>
       </c>
-      <c r="R145" s="25" t="s">
-        <v>689</v>
-      </c>
-      <c r="S145" s="25" t="s">
+      <c r="S145" s="35" t="s">
         <v>654</v>
       </c>
-      <c r="T145" s="24" t="s">
+      <c r="T145" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U145" s="24">
+      <c r="U145" s="34">
         <v>1.0</v>
       </c>
-      <c r="V145" s="25" t="s">
-        <v>710</v>
-      </c>
-      <c r="W145" s="26"/>
-      <c r="X145" s="26"/>
-      <c r="Y145" s="26"/>
-      <c r="Z145" s="26"/>
-      <c r="AA145" s="26"/>
-      <c r="AB145" s="26"/>
-      <c r="AC145" s="26"/>
-      <c r="AD145" s="26"/>
+      <c r="V145" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="W145" s="36"/>
+      <c r="X145" s="36"/>
+      <c r="Y145" s="36"/>
+      <c r="Z145" s="36"/>
+      <c r="AA145" s="36"/>
+      <c r="AB145" s="36"/>
+      <c r="AC145" s="36"/>
+      <c r="AD145" s="36"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="8">
@@ -37574,80 +39260,80 @@
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="24">
+      <c r="A147" s="34">
         <v>1.296637108E9</v>
       </c>
-      <c r="B147" s="24" t="s">
+      <c r="B147" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C147" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="D147" s="24">
+      <c r="D147" s="34">
         <v>2019.0</v>
       </c>
-      <c r="E147" s="24" t="s">
+      <c r="E147" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="24" t="s">
+      <c r="F147" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="G147" s="24" t="s">
+      <c r="G147" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="H147" s="24" t="s">
+      <c r="H147" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="I147" s="24" t="s">
+      <c r="I147" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="J147" s="24" t="s">
+      <c r="J147" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="K147" s="24" t="s">
+      <c r="K147" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="L147" s="24">
+      <c r="L147" s="34">
         <v>47.0</v>
       </c>
-      <c r="M147" s="25" t="s">
+      <c r="M147" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N147" s="25" t="s">
+      <c r="N147" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="O147" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="P147" s="25" t="s">
+      <c r="O147" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="P147" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="Q147" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="R147" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="S147" s="25" t="s">
+      <c r="Q147" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="R147" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="S147" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="T147" s="24" t="s">
+      <c r="T147" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="U147" s="24">
+      <c r="U147" s="34">
         <v>1.0</v>
       </c>
-      <c r="V147" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="W147" s="26"/>
-      <c r="X147" s="26"/>
-      <c r="Y147" s="26"/>
-      <c r="Z147" s="26"/>
-      <c r="AA147" s="26"/>
-      <c r="AB147" s="26"/>
-      <c r="AC147" s="26"/>
-      <c r="AD147" s="26"/>
+      <c r="V147" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="W147" s="36"/>
+      <c r="X147" s="36"/>
+      <c r="Y147" s="36"/>
+      <c r="Z147" s="36"/>
+      <c r="AA147" s="36"/>
+      <c r="AB147" s="36"/>
+      <c r="AC147" s="36"/>
+      <c r="AD147" s="36"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="8">
